--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3029692.754710304</v>
+        <v>3027233.718763918</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673417</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8319485.46286559</v>
+        <v>8319485.462865589</v>
       </c>
     </row>
     <row r="11">
@@ -1373,16 +1373,16 @@
         <v>318.4333377965047</v>
       </c>
       <c r="D11" t="n">
-        <v>229.46685153506</v>
+        <v>307.8434876461801</v>
       </c>
       <c r="E11" t="n">
-        <v>335.0908160977589</v>
+        <v>318.3882542159311</v>
       </c>
       <c r="F11" t="n">
         <v>360.0364917672086</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0754889722012</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>247.6997711423199</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.19592563362021</v>
+        <v>62.19592563362019</v>
       </c>
       <c r="T11" t="n">
         <v>157.0491626163216</v>
@@ -1430,7 +1430,7 @@
         <v>280.9127044956321</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>302.4014147429102</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>134.9958936023751</v>
       </c>
       <c r="H12" t="n">
-        <v>89.56234300421646</v>
+        <v>89.56234300421644</v>
       </c>
       <c r="I12" t="n">
-        <v>18.69411266421525</v>
+        <v>18.69411266421523</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,16 +1534,16 @@
         <v>101.7759190437095</v>
       </c>
       <c r="E13" t="n">
-        <v>99.59440867206632</v>
+        <v>99.59440867206634</v>
       </c>
       <c r="F13" t="n">
-        <v>98.5814940484284</v>
+        <v>98.58149404842841</v>
       </c>
       <c r="G13" t="n">
         <v>119.183256652338</v>
       </c>
       <c r="H13" t="n">
-        <v>97.88880926455177</v>
+        <v>97.88880926455178</v>
       </c>
       <c r="I13" t="n">
         <v>49.42271946009959</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95781425191826</v>
+        <v>41.95781425191822</v>
       </c>
       <c r="S13" t="n">
         <v>142.8772308032732</v>
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>202.8160079772651</v>
+        <v>335.8942876889777</v>
       </c>
       <c r="C14" t="n">
-        <v>318.4333377965047</v>
+        <v>282.6437196518982</v>
       </c>
       <c r="D14" t="n">
-        <v>307.8434876461801</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>335.0908160977589</v>
       </c>
       <c r="F14" t="n">
-        <v>360.0364917672086</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>364.0754889722012</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.6997711423199</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.19592563362021</v>
+        <v>62.19592563362019</v>
       </c>
       <c r="T14" t="n">
         <v>157.0491626163216</v>
@@ -1670,7 +1670,7 @@
         <v>302.4014147429102</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>322.8915467039662</v>
       </c>
       <c r="Y14" t="n">
         <v>339.3983846815507</v>
@@ -1701,10 +1701,10 @@
         <v>134.9958936023751</v>
       </c>
       <c r="H15" t="n">
-        <v>89.56234300421646</v>
+        <v>89.56234300421644</v>
       </c>
       <c r="I15" t="n">
-        <v>18.69411266421525</v>
+        <v>18.69411266421523</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1771,16 +1771,16 @@
         <v>101.7759190437095</v>
       </c>
       <c r="E16" t="n">
-        <v>99.59440867206632</v>
+        <v>99.59440867206634</v>
       </c>
       <c r="F16" t="n">
-        <v>98.5814940484284</v>
+        <v>98.58149404842841</v>
       </c>
       <c r="G16" t="n">
         <v>119.183256652338</v>
       </c>
       <c r="H16" t="n">
-        <v>97.88880926455177</v>
+        <v>97.88880926455178</v>
       </c>
       <c r="I16" t="n">
         <v>49.42271946009959</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95781425191826</v>
+        <v>41.95781425191822</v>
       </c>
       <c r="S16" t="n">
         <v>142.8772308032732</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>315.1591586383494</v>
+        <v>315.1591586383498</v>
       </c>
       <c r="C17" t="n">
-        <v>297.6982087458764</v>
+        <v>297.6982087458767</v>
       </c>
       <c r="D17" t="n">
-        <v>287.1083585955518</v>
+        <v>287.1083585955522</v>
       </c>
       <c r="E17" t="n">
-        <v>314.3556870471306</v>
+        <v>244.3182561194995</v>
       </c>
       <c r="F17" t="n">
-        <v>339.3013627165803</v>
+        <v>339.3013627165807</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>226.9646420916916</v>
+        <v>226.964642091692</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>41.4607965829919</v>
+        <v>41.46079658299223</v>
       </c>
       <c r="T17" t="n">
-        <v>66.27660263806474</v>
+        <v>136.3140335656937</v>
       </c>
       <c r="U17" t="n">
-        <v>183.4199543172309</v>
+        <v>183.4199543172312</v>
       </c>
       <c r="V17" t="n">
-        <v>260.1775754450038</v>
+        <v>260.1775754450041</v>
       </c>
       <c r="W17" t="n">
-        <v>281.6662856922819</v>
+        <v>281.6662856922823</v>
       </c>
       <c r="X17" t="n">
-        <v>302.1564176533379</v>
+        <v>302.1564176533383</v>
       </c>
       <c r="Y17" t="n">
-        <v>318.6632556309224</v>
+        <v>318.6632556309228</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9958936023751</v>
       </c>
       <c r="H18" t="n">
-        <v>89.56234300421646</v>
+        <v>89.56234300421644</v>
       </c>
       <c r="I18" t="n">
-        <v>18.69411266421525</v>
+        <v>18.69411266421523</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>112.2572971568061</v>
+        <v>112.2572971568065</v>
       </c>
       <c r="C19" t="n">
-        <v>99.67213807349668</v>
+        <v>99.67213807349705</v>
       </c>
       <c r="D19" t="n">
-        <v>81.04078999308121</v>
+        <v>81.04078999308157</v>
       </c>
       <c r="E19" t="n">
-        <v>78.85927962143802</v>
+        <v>78.85927962143839</v>
       </c>
       <c r="F19" t="n">
-        <v>77.84636499780009</v>
+        <v>77.84636499780046</v>
       </c>
       <c r="G19" t="n">
-        <v>98.44812760170967</v>
+        <v>98.44812760171004</v>
       </c>
       <c r="H19" t="n">
-        <v>77.15368021392347</v>
+        <v>77.15368021392383</v>
       </c>
       <c r="I19" t="n">
-        <v>28.68759040947129</v>
+        <v>28.68759040947164</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.22268520128996</v>
+        <v>21.22268520129029</v>
       </c>
       <c r="S19" t="n">
-        <v>122.1421017526449</v>
+        <v>122.1421017526452</v>
       </c>
       <c r="T19" t="n">
-        <v>151.9614581862373</v>
+        <v>151.9614581862377</v>
       </c>
       <c r="U19" t="n">
-        <v>218.6369916732715</v>
+        <v>218.6369916732719</v>
       </c>
       <c r="V19" t="n">
-        <v>184.5629602986969</v>
+        <v>184.5629602986972</v>
       </c>
       <c r="W19" t="n">
-        <v>218.9483153114599</v>
+        <v>218.9483153114602</v>
       </c>
       <c r="X19" t="n">
-        <v>158.134972363906</v>
+        <v>158.1349723639064</v>
       </c>
       <c r="Y19" t="n">
-        <v>151.0099703269636</v>
+        <v>151.009970326964</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>315.1591586383494</v>
+        <v>315.1591586383498</v>
       </c>
       <c r="C20" t="n">
-        <v>297.6982087458764</v>
+        <v>297.6982087458767</v>
       </c>
       <c r="D20" t="n">
-        <v>287.1083585955518</v>
+        <v>287.1083585955522</v>
       </c>
       <c r="E20" t="n">
-        <v>314.3556870471306</v>
+        <v>314.355687047131</v>
       </c>
       <c r="F20" t="n">
-        <v>339.3013627165803</v>
+        <v>152.8882139590685</v>
       </c>
       <c r="G20" t="n">
-        <v>343.3403599215729</v>
+        <v>343.3403599215733</v>
       </c>
       <c r="H20" t="n">
-        <v>226.9646420916916</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>41.46079658299227</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>136.3140335656937</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>183.4199543172312</v>
       </c>
       <c r="V20" t="n">
-        <v>207.9945690617202</v>
+        <v>260.1775754450041</v>
       </c>
       <c r="W20" t="n">
-        <v>281.6662856922819</v>
+        <v>281.6662856922823</v>
       </c>
       <c r="X20" t="n">
-        <v>302.1564176533379</v>
+        <v>302.1564176533383</v>
       </c>
       <c r="Y20" t="n">
-        <v>318.6632556309224</v>
+        <v>318.6632556309228</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>112.2572971568061</v>
+        <v>112.2572971568065</v>
       </c>
       <c r="C22" t="n">
-        <v>99.67213807349668</v>
+        <v>99.67213807349705</v>
       </c>
       <c r="D22" t="n">
-        <v>81.04078999308121</v>
+        <v>81.04078999308157</v>
       </c>
       <c r="E22" t="n">
-        <v>78.85927962143802</v>
+        <v>78.85927962143839</v>
       </c>
       <c r="F22" t="n">
-        <v>77.84636499780009</v>
+        <v>77.84636499780046</v>
       </c>
       <c r="G22" t="n">
-        <v>98.44812760170967</v>
+        <v>98.44812760171004</v>
       </c>
       <c r="H22" t="n">
-        <v>77.15368021392347</v>
+        <v>77.15368021392383</v>
       </c>
       <c r="I22" t="n">
-        <v>28.68759040947129</v>
+        <v>28.68759040947166</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.22268520128996</v>
+        <v>21.22268520129033</v>
       </c>
       <c r="S22" t="n">
-        <v>122.1421017526449</v>
+        <v>122.1421017526452</v>
       </c>
       <c r="T22" t="n">
-        <v>151.9614581862373</v>
+        <v>151.9614581862377</v>
       </c>
       <c r="U22" t="n">
-        <v>218.6369916732715</v>
+        <v>218.6369916732719</v>
       </c>
       <c r="V22" t="n">
-        <v>184.5629602986969</v>
+        <v>184.5629602986972</v>
       </c>
       <c r="W22" t="n">
-        <v>218.9483153114599</v>
+        <v>218.9483153114602</v>
       </c>
       <c r="X22" t="n">
-        <v>158.134972363906</v>
+        <v>158.1349723639064</v>
       </c>
       <c r="Y22" t="n">
-        <v>151.0099703269636</v>
+        <v>151.009970326964</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>315.1591586383494</v>
+        <v>315.1591586383498</v>
       </c>
       <c r="C23" t="n">
-        <v>297.6982087458764</v>
+        <v>297.6982087458767</v>
       </c>
       <c r="D23" t="n">
-        <v>287.1083585955518</v>
+        <v>287.1083585955522</v>
       </c>
       <c r="E23" t="n">
-        <v>314.3556870471306</v>
+        <v>314.355687047131</v>
       </c>
       <c r="F23" t="n">
-        <v>339.3013627165803</v>
+        <v>339.3013627165807</v>
       </c>
       <c r="G23" t="n">
-        <v>343.3403599215729</v>
+        <v>343.3403599215733</v>
       </c>
       <c r="H23" t="n">
-        <v>226.9646420916916</v>
+        <v>226.964642091692</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>41.4607965829919</v>
+        <v>41.46079658299227</v>
       </c>
       <c r="T23" t="n">
-        <v>136.3140335656933</v>
+        <v>136.3140335656937</v>
       </c>
       <c r="U23" t="n">
-        <v>183.4199543172309</v>
+        <v>183.4199543172312</v>
       </c>
       <c r="V23" t="n">
-        <v>260.1775754450038</v>
+        <v>260.1775754450041</v>
       </c>
       <c r="W23" t="n">
-        <v>281.6662856922819</v>
+        <v>281.6662856922823</v>
       </c>
       <c r="X23" t="n">
-        <v>302.1564176533379</v>
+        <v>302.1564176533383</v>
       </c>
       <c r="Y23" t="n">
-        <v>318.6632556309224</v>
+        <v>318.6632556309228</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>112.2572971568061</v>
+        <v>112.2572971568065</v>
       </c>
       <c r="C25" t="n">
-        <v>99.67213807349668</v>
+        <v>99.67213807349705</v>
       </c>
       <c r="D25" t="n">
-        <v>81.04078999308121</v>
+        <v>81.04078999308157</v>
       </c>
       <c r="E25" t="n">
-        <v>78.85927962143802</v>
+        <v>78.85927962143839</v>
       </c>
       <c r="F25" t="n">
-        <v>77.84636499780009</v>
+        <v>77.84636499780046</v>
       </c>
       <c r="G25" t="n">
-        <v>98.44812760170967</v>
+        <v>98.44812760171004</v>
       </c>
       <c r="H25" t="n">
-        <v>77.15368021392347</v>
+        <v>77.15368021392383</v>
       </c>
       <c r="I25" t="n">
-        <v>28.68759040947129</v>
+        <v>28.68759040947166</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.22268520128996</v>
+        <v>21.22268520129033</v>
       </c>
       <c r="S25" t="n">
-        <v>122.1421017526449</v>
+        <v>122.1421017526452</v>
       </c>
       <c r="T25" t="n">
-        <v>151.9614581862373</v>
+        <v>151.9614581862377</v>
       </c>
       <c r="U25" t="n">
-        <v>218.6369916732715</v>
+        <v>218.6369916732719</v>
       </c>
       <c r="V25" t="n">
-        <v>184.5629602986969</v>
+        <v>184.5629602986972</v>
       </c>
       <c r="W25" t="n">
-        <v>218.9483153114599</v>
+        <v>218.9483153114602</v>
       </c>
       <c r="X25" t="n">
-        <v>158.134972363906</v>
+        <v>158.1349723639064</v>
       </c>
       <c r="Y25" t="n">
-        <v>151.0099703269636</v>
+        <v>151.009970326964</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>335.8942876889777</v>
       </c>
       <c r="C26" t="n">
-        <v>318.4333377965047</v>
+        <v>318.4333377965046</v>
       </c>
       <c r="D26" t="n">
         <v>307.8434876461801</v>
@@ -2564,10 +2564,10 @@
         <v>335.0908160977589</v>
       </c>
       <c r="F26" t="n">
-        <v>360.0364917672086</v>
+        <v>360.0364917672085</v>
       </c>
       <c r="G26" t="n">
-        <v>364.0754889722012</v>
+        <v>364.0754889722011</v>
       </c>
       <c r="H26" t="n">
         <v>247.6997711423199</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.19592563362018</v>
+        <v>62.19592563362017</v>
       </c>
       <c r="T26" t="n">
         <v>157.0491626163216</v>
@@ -2612,13 +2612,13 @@
         <v>204.1550833678591</v>
       </c>
       <c r="V26" t="n">
-        <v>280.9127044956321</v>
+        <v>280.912704495632</v>
       </c>
       <c r="W26" t="n">
-        <v>302.4014147429102</v>
+        <v>302.4014147429101</v>
       </c>
       <c r="X26" t="n">
-        <v>322.8915467039662</v>
+        <v>322.8915467039661</v>
       </c>
       <c r="Y26" t="n">
         <v>339.3983846815507</v>
@@ -2728,10 +2728,10 @@
         <v>119.1832566523379</v>
       </c>
       <c r="H28" t="n">
-        <v>97.88880926455174</v>
+        <v>97.88880926455175</v>
       </c>
       <c r="I28" t="n">
-        <v>49.42271946009956</v>
+        <v>49.42271946009955</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95781425191824</v>
+        <v>41.95781425191823</v>
       </c>
       <c r="S28" t="n">
         <v>142.8772308032731</v>
@@ -2770,7 +2770,7 @@
         <v>239.3721207238998</v>
       </c>
       <c r="V28" t="n">
-        <v>205.2980893493254</v>
+        <v>205.2980893493251</v>
       </c>
       <c r="W28" t="n">
         <v>239.6834443620881</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.19592563362018</v>
+        <v>62.19592563362021</v>
       </c>
       <c r="T29" t="n">
         <v>157.0491626163216</v>
       </c>
       <c r="U29" t="n">
-        <v>204.1550833678591</v>
+        <v>204.1550833678592</v>
       </c>
       <c r="V29" t="n">
         <v>280.9127044956321</v>
@@ -2956,19 +2956,19 @@
         <v>101.7759190437095</v>
       </c>
       <c r="E31" t="n">
-        <v>99.59440867206629</v>
+        <v>99.59440867206632</v>
       </c>
       <c r="F31" t="n">
-        <v>98.58149404842837</v>
+        <v>98.5814940484284</v>
       </c>
       <c r="G31" t="n">
-        <v>119.1832566523379</v>
+        <v>119.183256652338</v>
       </c>
       <c r="H31" t="n">
-        <v>97.88880926455174</v>
+        <v>97.88880926455178</v>
       </c>
       <c r="I31" t="n">
-        <v>49.42271946009956</v>
+        <v>49.42271946009868</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95781425191824</v>
+        <v>41.95781425191826</v>
       </c>
       <c r="S31" t="n">
-        <v>142.8772308032731</v>
+        <v>142.8772308032732</v>
       </c>
       <c r="T31" t="n">
         <v>172.6965872368656</v>
@@ -3007,10 +3007,10 @@
         <v>239.3721207238998</v>
       </c>
       <c r="V31" t="n">
-        <v>205.2980893493251</v>
+        <v>205.2980893493252</v>
       </c>
       <c r="W31" t="n">
-        <v>239.6834443620881</v>
+        <v>239.6834443620882</v>
       </c>
       <c r="X31" t="n">
         <v>178.8701014145343</v>
@@ -3281,7 +3281,7 @@
         <v>337.9710640483263</v>
       </c>
       <c r="H35" t="n">
-        <v>221.595346218445</v>
+        <v>221.5953462184451</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>36.09150070974529</v>
+        <v>36.09150070974532</v>
       </c>
       <c r="T35" t="n">
-        <v>130.9447376924467</v>
+        <v>130.9447376924468</v>
       </c>
       <c r="U35" t="n">
-        <v>178.0506584439842</v>
+        <v>178.0506584439843</v>
       </c>
       <c r="V35" t="n">
-        <v>254.8082795717571</v>
+        <v>254.8082795717572</v>
       </c>
       <c r="W35" t="n">
         <v>276.2969898190353</v>
@@ -3332,7 +3332,7 @@
         <v>296.7871217800913</v>
       </c>
       <c r="Y35" t="n">
-        <v>313.2939597576758</v>
+        <v>313.2939597576759</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>106.8880012835595</v>
+        <v>106.8880012835596</v>
       </c>
       <c r="C37" t="n">
-        <v>94.30284220025007</v>
+        <v>94.3028422002501</v>
       </c>
       <c r="D37" t="n">
-        <v>75.67149411983459</v>
+        <v>75.67149411983462</v>
       </c>
       <c r="E37" t="n">
-        <v>123.9012077269078</v>
+        <v>73.48998374819143</v>
       </c>
       <c r="F37" t="n">
-        <v>72.47706912455348</v>
+        <v>72.47706912455351</v>
       </c>
       <c r="G37" t="n">
-        <v>93.07883172846306</v>
+        <v>93.07883172846309</v>
       </c>
       <c r="H37" t="n">
-        <v>71.78438434067685</v>
+        <v>71.78438434067688</v>
       </c>
       <c r="I37" t="n">
-        <v>23.31829453622468</v>
+        <v>23.31829453622471</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>15.85338932804335</v>
+        <v>15.85338932804338</v>
       </c>
       <c r="S37" t="n">
-        <v>116.7728058793982</v>
+        <v>116.7728058793983</v>
       </c>
       <c r="T37" t="n">
-        <v>146.5921623129907</v>
+        <v>197.0033862917064</v>
       </c>
       <c r="U37" t="n">
         <v>213.2676958000249</v>
       </c>
       <c r="V37" t="n">
-        <v>179.1936644254502</v>
+        <v>179.1936644254503</v>
       </c>
       <c r="W37" t="n">
-        <v>213.5790194382132</v>
+        <v>213.5790194382133</v>
       </c>
       <c r="X37" t="n">
         <v>152.7656764906594</v>
       </c>
       <c r="Y37" t="n">
-        <v>145.640674453717</v>
+        <v>145.6406744537171</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>309.7898627651031</v>
+        <v>309.7898627651029</v>
       </c>
       <c r="C38" t="n">
-        <v>292.3289128726301</v>
+        <v>292.3289128726299</v>
       </c>
       <c r="D38" t="n">
-        <v>281.7390627223055</v>
+        <v>281.7390627223053</v>
       </c>
       <c r="E38" t="n">
-        <v>308.9863911738843</v>
+        <v>308.9863911738841</v>
       </c>
       <c r="F38" t="n">
-        <v>333.932066843334</v>
+        <v>333.9320668433338</v>
       </c>
       <c r="G38" t="n">
-        <v>337.9710640483266</v>
+        <v>337.9710640483264</v>
       </c>
       <c r="H38" t="n">
-        <v>221.5953462184453</v>
+        <v>221.5953462184451</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>36.09150070974557</v>
+        <v>36.09150070974538</v>
       </c>
       <c r="T38" t="n">
-        <v>130.944737692447</v>
+        <v>130.9447376924468</v>
       </c>
       <c r="U38" t="n">
-        <v>178.0506584439846</v>
+        <v>178.0506584439843</v>
       </c>
       <c r="V38" t="n">
-        <v>254.8082795717575</v>
+        <v>254.8082795717572</v>
       </c>
       <c r="W38" t="n">
-        <v>276.2969898190356</v>
+        <v>276.2969898190353</v>
       </c>
       <c r="X38" t="n">
-        <v>296.7871217800916</v>
+        <v>296.7871217800914</v>
       </c>
       <c r="Y38" t="n">
-        <v>313.2939597576761</v>
+        <v>313.2939597576759</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>106.8880012835598</v>
+        <v>106.8880012835596</v>
       </c>
       <c r="C40" t="n">
-        <v>94.30284220025037</v>
+        <v>94.30284220025015</v>
       </c>
       <c r="D40" t="n">
-        <v>75.67149411983489</v>
+        <v>75.67149411983468</v>
       </c>
       <c r="E40" t="n">
-        <v>73.4899837481917</v>
+        <v>73.48998374819149</v>
       </c>
       <c r="F40" t="n">
-        <v>72.47706912455378</v>
+        <v>72.47706912455357</v>
       </c>
       <c r="G40" t="n">
-        <v>93.07883172846336</v>
+        <v>93.07883172846314</v>
       </c>
       <c r="H40" t="n">
-        <v>71.78438434067715</v>
+        <v>71.78438434067694</v>
       </c>
       <c r="I40" t="n">
-        <v>23.31829453622498</v>
+        <v>23.31829453622476</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>15.85338932804365</v>
+        <v>15.85338932804343</v>
       </c>
       <c r="S40" t="n">
-        <v>116.7728058793986</v>
+        <v>116.7728058793983</v>
       </c>
       <c r="T40" t="n">
-        <v>146.592162312991</v>
+        <v>146.5921623129908</v>
       </c>
       <c r="U40" t="n">
-        <v>213.2676958000252</v>
+        <v>213.267695800025</v>
       </c>
       <c r="V40" t="n">
-        <v>229.6048884041618</v>
+        <v>179.1936644254503</v>
       </c>
       <c r="W40" t="n">
-        <v>213.5790194382135</v>
+        <v>213.5790194382133</v>
       </c>
       <c r="X40" t="n">
-        <v>152.7656764906597</v>
+        <v>152.7656764906595</v>
       </c>
       <c r="Y40" t="n">
-        <v>145.6406744537173</v>
+        <v>196.051898432432</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>335.8942876889777</v>
+        <v>335.8942876889778</v>
       </c>
       <c r="C41" t="n">
-        <v>318.4333377965047</v>
+        <v>318.4333377965048</v>
       </c>
       <c r="D41" t="n">
-        <v>307.8434876461801</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>335.0908160977589</v>
+        <v>277.4723548096911</v>
       </c>
       <c r="F41" t="n">
-        <v>360.0364917672085</v>
+        <v>360.0364917672086</v>
       </c>
       <c r="G41" t="n">
-        <v>364.0754889722011</v>
+        <v>364.0754889722012</v>
       </c>
       <c r="H41" t="n">
-        <v>247.6997711423199</v>
+        <v>247.69977114232</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.19592563362018</v>
+        <v>62.19592563362029</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>157.0491626163217</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>204.1550833678592</v>
       </c>
       <c r="V41" t="n">
-        <v>276.6550015455679</v>
+        <v>280.9127044956321</v>
       </c>
       <c r="W41" t="n">
-        <v>302.4014147429101</v>
+        <v>302.4014147429102</v>
       </c>
       <c r="X41" t="n">
-        <v>322.8915467039661</v>
+        <v>322.8915467039662</v>
       </c>
       <c r="Y41" t="n">
-        <v>339.3983846815507</v>
+        <v>339.3983846815508</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.9924262074344</v>
+        <v>132.9924262074345</v>
       </c>
       <c r="C43" t="n">
-        <v>120.407267124125</v>
+        <v>120.4072671241251</v>
       </c>
       <c r="D43" t="n">
-        <v>101.7759190437095</v>
+        <v>101.7759190437096</v>
       </c>
       <c r="E43" t="n">
-        <v>99.59440867206629</v>
+        <v>99.59440867206641</v>
       </c>
       <c r="F43" t="n">
-        <v>98.58149404842837</v>
+        <v>98.58149404842848</v>
       </c>
       <c r="G43" t="n">
-        <v>119.1832566523379</v>
+        <v>119.1832566523381</v>
       </c>
       <c r="H43" t="n">
-        <v>97.88880926455175</v>
+        <v>97.88880926455185</v>
       </c>
       <c r="I43" t="n">
-        <v>49.42271946009956</v>
+        <v>49.42271946009968</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95781425191824</v>
+        <v>41.95781425191835</v>
       </c>
       <c r="S43" t="n">
-        <v>142.8772308032731</v>
+        <v>142.8772308032732</v>
       </c>
       <c r="T43" t="n">
-        <v>172.6965872368656</v>
+        <v>172.6965872368657</v>
       </c>
       <c r="U43" t="n">
-        <v>239.3721207238998</v>
+        <v>239.3721207238999</v>
       </c>
       <c r="V43" t="n">
-        <v>205.2980893493251</v>
+        <v>205.2980893493252</v>
       </c>
       <c r="W43" t="n">
-        <v>239.6834443620881</v>
+        <v>239.6834443620882</v>
       </c>
       <c r="X43" t="n">
-        <v>178.8701014145343</v>
+        <v>178.8701014145344</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.7450993775919</v>
+        <v>171.745099377592</v>
       </c>
     </row>
     <row r="44">
@@ -3983,7 +3983,7 @@
         <v>307.8434876461801</v>
       </c>
       <c r="E44" t="n">
-        <v>335.0908160977589</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>360.0364917672086</v>
@@ -3992,7 +3992,7 @@
         <v>364.0754889722012</v>
       </c>
       <c r="H44" t="n">
-        <v>247.6997711423199</v>
+        <v>217.3286383058312</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.19592563362019</v>
+        <v>62.19592563362022</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>157.0491626163217</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>204.1550833678592</v>
       </c>
       <c r="V44" t="n">
-        <v>276.6550015455679</v>
+        <v>280.9127044956321</v>
       </c>
       <c r="W44" t="n">
         <v>302.4014147429102</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.9924262074344</v>
+        <v>132.9924262074345</v>
       </c>
       <c r="C46" t="n">
         <v>120.407267124125</v>
@@ -4141,19 +4141,19 @@
         <v>101.7759190437095</v>
       </c>
       <c r="E46" t="n">
-        <v>99.59440867206632</v>
+        <v>99.59440867206635</v>
       </c>
       <c r="F46" t="n">
-        <v>98.5814940484284</v>
+        <v>98.58149404842843</v>
       </c>
       <c r="G46" t="n">
         <v>119.183256652338</v>
       </c>
       <c r="H46" t="n">
-        <v>97.88880926455177</v>
+        <v>97.8888092645518</v>
       </c>
       <c r="I46" t="n">
-        <v>49.42271946009959</v>
+        <v>49.42271946009961</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95781425191825</v>
+        <v>41.95781425191828</v>
       </c>
       <c r="S46" t="n">
         <v>142.8772308032732</v>
       </c>
       <c r="T46" t="n">
-        <v>172.6965872368656</v>
+        <v>172.6965872368657</v>
       </c>
       <c r="U46" t="n">
         <v>239.3721207238998</v>
@@ -4201,7 +4201,7 @@
         <v>178.8701014145343</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.7450993775919</v>
+        <v>171.745099377592</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1940.213222305435</v>
+        <v>1634.757247817648</v>
       </c>
       <c r="C11" t="n">
-        <v>1618.563386147349</v>
+        <v>1313.107411659563</v>
       </c>
       <c r="D11" t="n">
-        <v>1386.778687627086</v>
+        <v>1002.154393835139</v>
       </c>
       <c r="E11" t="n">
-        <v>1048.303115811168</v>
+        <v>680.5500966473287</v>
       </c>
       <c r="F11" t="n">
-        <v>684.6298918038868</v>
+        <v>316.8768726400473</v>
       </c>
       <c r="G11" t="n">
         <v>316.8768726400473</v>
       </c>
       <c r="H11" t="n">
-        <v>66.67508360740084</v>
+        <v>66.67508360740088</v>
       </c>
       <c r="I11" t="n">
-        <v>66.67508360740084</v>
+        <v>66.67508360740088</v>
       </c>
       <c r="J11" t="n">
-        <v>256.1157290845815</v>
+        <v>256.1157290845813</v>
       </c>
       <c r="K11" t="n">
-        <v>590.7766674795198</v>
+        <v>590.7766674795193</v>
       </c>
       <c r="L11" t="n">
-        <v>1042.854916160837</v>
+        <v>1042.854916160836</v>
       </c>
       <c r="M11" t="n">
         <v>1577.548511415963</v>
       </c>
       <c r="N11" t="n">
-        <v>2125.507816426093</v>
+        <v>2125.507816426094</v>
       </c>
       <c r="O11" t="n">
-        <v>2629.59498860319</v>
+        <v>2629.594988603192</v>
       </c>
       <c r="P11" t="n">
-        <v>3025.320726728483</v>
+        <v>3025.320726728484</v>
       </c>
       <c r="Q11" t="n">
-        <v>3274.321529061169</v>
+        <v>3274.32152906117</v>
       </c>
       <c r="R11" t="n">
-        <v>3333.754180370042</v>
+        <v>3333.754180370044</v>
       </c>
       <c r="S11" t="n">
-        <v>3270.930013063355</v>
+        <v>3270.930013063356</v>
       </c>
       <c r="T11" t="n">
-        <v>3112.29449526909</v>
+        <v>3112.294495269092</v>
       </c>
       <c r="U11" t="n">
-        <v>2906.07723934196</v>
+        <v>2906.077239341962</v>
       </c>
       <c r="V11" t="n">
-        <v>2622.327032780716</v>
+        <v>2622.327032780718</v>
       </c>
       <c r="W11" t="n">
-        <v>2622.327032780716</v>
+        <v>2316.87105829293</v>
       </c>
       <c r="X11" t="n">
-        <v>2622.327032780716</v>
+        <v>2316.87105829293</v>
       </c>
       <c r="Y11" t="n">
-        <v>2279.50038158723</v>
+        <v>1974.044407099444</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.0250388280389</v>
       </c>
       <c r="H12" t="n">
-        <v>85.55802569246674</v>
+        <v>85.55802569246677</v>
       </c>
       <c r="I12" t="n">
-        <v>66.67508360740084</v>
+        <v>66.67508360740088</v>
       </c>
       <c r="J12" t="n">
-        <v>160.6867872982719</v>
+        <v>160.686787298272</v>
       </c>
       <c r="K12" t="n">
-        <v>399.5225875947483</v>
+        <v>399.5225875947486</v>
       </c>
       <c r="L12" t="n">
-        <v>761.1380727853768</v>
+        <v>766.9893364169336</v>
       </c>
       <c r="M12" t="n">
-        <v>1209.311304546324</v>
+        <v>1209.233006734174</v>
       </c>
       <c r="N12" t="n">
-        <v>1683.754993086659</v>
+        <v>1683.676695274509</v>
       </c>
       <c r="O12" t="n">
-        <v>2095.558482804197</v>
+        <v>2095.480184992047</v>
       </c>
       <c r="P12" t="n">
-        <v>2406.734022296206</v>
+        <v>2406.655724484056</v>
       </c>
       <c r="Q12" t="n">
-        <v>2564.82743329057</v>
+        <v>2564.749135478421</v>
       </c>
       <c r="R12" t="n">
         <v>2564.82743329057</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>760.4668757945908</v>
+        <v>760.4668757945921</v>
       </c>
       <c r="C13" t="n">
-        <v>638.84337364901</v>
+        <v>638.8433736490113</v>
       </c>
       <c r="D13" t="n">
-        <v>536.0394150190004</v>
+        <v>536.0394150190016</v>
       </c>
       <c r="E13" t="n">
-        <v>435.4390022189334</v>
+        <v>435.4390022189345</v>
       </c>
       <c r="F13" t="n">
-        <v>335.8617355033492</v>
+        <v>335.8617355033503</v>
       </c>
       <c r="G13" t="n">
-        <v>215.4746075716949</v>
+        <v>215.4746075716957</v>
       </c>
       <c r="H13" t="n">
-        <v>116.597022455986</v>
+        <v>116.5970224559863</v>
       </c>
       <c r="I13" t="n">
-        <v>66.67508360740084</v>
+        <v>66.67508360740088</v>
       </c>
       <c r="J13" t="n">
-        <v>158.3786877587869</v>
+        <v>158.3786877587871</v>
       </c>
       <c r="K13" t="n">
-        <v>409.0818167966159</v>
+        <v>409.0818167966161</v>
       </c>
       <c r="L13" t="n">
         <v>772.4539831710047</v>
@@ -5212,37 +5212,37 @@
         <v>1551.681048175695</v>
       </c>
       <c r="O13" t="n">
-        <v>1897.801270198113</v>
+        <v>1897.801270198114</v>
       </c>
       <c r="P13" t="n">
-        <v>2177.138853554121</v>
+        <v>2177.138853554122</v>
       </c>
       <c r="Q13" t="n">
-        <v>2301.368808852097</v>
+        <v>2301.368808852098</v>
       </c>
       <c r="R13" t="n">
-        <v>2258.987178294604</v>
+        <v>2258.987178294605</v>
       </c>
       <c r="S13" t="n">
-        <v>2114.666743139782</v>
+        <v>2114.666743139783</v>
       </c>
       <c r="T13" t="n">
-        <v>1940.225745930827</v>
+        <v>1940.225745930828</v>
       </c>
       <c r="U13" t="n">
-        <v>1698.435724997595</v>
+        <v>1698.435724997596</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.063917574034</v>
+        <v>1491.063917574035</v>
       </c>
       <c r="W13" t="n">
-        <v>1248.9594283194</v>
+        <v>1248.959428319401</v>
       </c>
       <c r="X13" t="n">
         <v>1068.282558203709</v>
       </c>
       <c r="Y13" t="n">
-        <v>894.8026598425045</v>
+        <v>894.8026598425054</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1769.17975257695</v>
+        <v>1308.604170338894</v>
       </c>
       <c r="C14" t="n">
-        <v>1447.529916418865</v>
+        <v>1023.105463619805</v>
       </c>
       <c r="D14" t="n">
-        <v>1136.57689859444</v>
+        <v>1023.105463619805</v>
       </c>
       <c r="E14" t="n">
-        <v>798.101326778522</v>
+        <v>684.6298918038869</v>
       </c>
       <c r="F14" t="n">
-        <v>434.4281027712404</v>
+        <v>684.6298918038869</v>
       </c>
       <c r="G14" t="n">
-        <v>66.67508360740079</v>
+        <v>316.8768726400473</v>
       </c>
       <c r="H14" t="n">
-        <v>66.67508360740079</v>
+        <v>66.67508360740088</v>
       </c>
       <c r="I14" t="n">
-        <v>66.67508360740079</v>
+        <v>66.67508360740088</v>
       </c>
       <c r="J14" t="n">
-        <v>256.1157290845814</v>
+        <v>256.1157290845816</v>
       </c>
       <c r="K14" t="n">
-        <v>590.7766674795197</v>
+        <v>590.77666747952</v>
       </c>
       <c r="L14" t="n">
-        <v>1042.854916160836</v>
+        <v>1042.854916160837</v>
       </c>
       <c r="M14" t="n">
-        <v>1577.548511415962</v>
+        <v>1577.548511415964</v>
       </c>
       <c r="N14" t="n">
-        <v>2125.507816426092</v>
+        <v>2125.507816426095</v>
       </c>
       <c r="O14" t="n">
-        <v>2629.594988603189</v>
+        <v>2629.594988603193</v>
       </c>
       <c r="P14" t="n">
-        <v>3025.320726728481</v>
+        <v>3025.320726728484</v>
       </c>
       <c r="Q14" t="n">
-        <v>3274.321529061167</v>
+        <v>3274.32152906117</v>
       </c>
       <c r="R14" t="n">
-        <v>3333.75418037004</v>
+        <v>3333.754180370044</v>
       </c>
       <c r="S14" t="n">
-        <v>3270.930013063352</v>
+        <v>3270.930013063356</v>
       </c>
       <c r="T14" t="n">
-        <v>3112.294495269088</v>
+        <v>3112.294495269092</v>
       </c>
       <c r="U14" t="n">
-        <v>2906.077239341958</v>
+        <v>2906.077239341962</v>
       </c>
       <c r="V14" t="n">
-        <v>2622.327032780714</v>
+        <v>2622.327032780717</v>
       </c>
       <c r="W14" t="n">
-        <v>2316.871058292926</v>
+        <v>2316.871058292929</v>
       </c>
       <c r="X14" t="n">
-        <v>2316.871058292926</v>
+        <v>1990.717980814175</v>
       </c>
       <c r="Y14" t="n">
-        <v>1974.04440709944</v>
+        <v>1647.891329620689</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>176.0250388280389</v>
       </c>
       <c r="H15" t="n">
-        <v>85.55802569246671</v>
+        <v>85.55802569246677</v>
       </c>
       <c r="I15" t="n">
-        <v>66.67508360740079</v>
+        <v>66.67508360740088</v>
       </c>
       <c r="J15" t="n">
-        <v>160.6867872982718</v>
+        <v>160.686787298272</v>
       </c>
       <c r="K15" t="n">
-        <v>399.5225875947482</v>
+        <v>399.5225875947486</v>
       </c>
       <c r="L15" t="n">
-        <v>766.9893364169332</v>
+        <v>766.9893364169336</v>
       </c>
       <c r="M15" t="n">
-        <v>1209.233006734175</v>
+        <v>1215.162568177881</v>
       </c>
       <c r="N15" t="n">
-        <v>1683.67669527451</v>
+        <v>1689.606256718216</v>
       </c>
       <c r="O15" t="n">
-        <v>2095.480184992048</v>
+        <v>2101.409746435754</v>
       </c>
       <c r="P15" t="n">
-        <v>2406.655724484057</v>
+        <v>2406.655724484056</v>
       </c>
       <c r="Q15" t="n">
         <v>2564.749135478421</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>760.4668757945913</v>
+        <v>760.4668757945916</v>
       </c>
       <c r="C16" t="n">
-        <v>638.8433736490105</v>
+        <v>638.8433736490108</v>
       </c>
       <c r="D16" t="n">
-        <v>536.0394150190009</v>
+        <v>536.0394150190011</v>
       </c>
       <c r="E16" t="n">
-        <v>435.4390022189339</v>
+        <v>435.4390022189341</v>
       </c>
       <c r="F16" t="n">
         <v>335.8617355033497</v>
       </c>
       <c r="G16" t="n">
-        <v>215.4746075716951</v>
+        <v>215.4746075716952</v>
       </c>
       <c r="H16" t="n">
-        <v>116.5970224559862</v>
+        <v>116.5970224559863</v>
       </c>
       <c r="I16" t="n">
-        <v>66.67508360740079</v>
+        <v>66.67508360740088</v>
       </c>
       <c r="J16" t="n">
-        <v>158.3786877587869</v>
+        <v>158.3786877587872</v>
       </c>
       <c r="K16" t="n">
-        <v>409.081816796616</v>
+        <v>409.0818167966163</v>
       </c>
       <c r="L16" t="n">
-        <v>772.4539831710047</v>
+        <v>772.4539831710051</v>
       </c>
       <c r="M16" t="n">
         <v>1163.447380751578</v>
@@ -5449,10 +5449,10 @@
         <v>1551.681048175695</v>
       </c>
       <c r="O16" t="n">
-        <v>1897.801270198113</v>
+        <v>1897.801270198114</v>
       </c>
       <c r="P16" t="n">
-        <v>2177.138853554121</v>
+        <v>2177.138853554122</v>
       </c>
       <c r="Q16" t="n">
         <v>2301.368808852098</v>
@@ -5467,7 +5467,7 @@
         <v>1940.225745930828</v>
       </c>
       <c r="U16" t="n">
-        <v>1698.435724997595</v>
+        <v>1698.435724997596</v>
       </c>
       <c r="V16" t="n">
         <v>1491.063917574035</v>
@@ -5479,7 +5479,7 @@
         <v>1068.282558203709</v>
       </c>
       <c r="Y16" t="n">
-        <v>894.8026598425049</v>
+        <v>894.8026598425051</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1546.905648452684</v>
+        <v>1476.160768727806</v>
       </c>
       <c r="C17" t="n">
-        <v>1246.200387093213</v>
+        <v>1175.455507368335</v>
       </c>
       <c r="D17" t="n">
-        <v>956.1919440674033</v>
+        <v>885.4470643425243</v>
       </c>
       <c r="E17" t="n">
-        <v>638.6609470500998</v>
+        <v>638.6609470501005</v>
       </c>
       <c r="F17" t="n">
-        <v>295.9322978414328</v>
+        <v>295.9322978414332</v>
       </c>
       <c r="G17" t="n">
-        <v>295.9322978414328</v>
+        <v>295.9322978414332</v>
       </c>
       <c r="H17" t="n">
-        <v>66.67508360740084</v>
+        <v>66.67508360740088</v>
       </c>
       <c r="I17" t="n">
-        <v>66.67508360740084</v>
+        <v>66.67508360740088</v>
       </c>
       <c r="J17" t="n">
-        <v>256.1157290845813</v>
+        <v>256.1157290845827</v>
       </c>
       <c r="K17" t="n">
-        <v>590.7766674795193</v>
+        <v>590.7766674795212</v>
       </c>
       <c r="L17" t="n">
-        <v>1042.854916160836</v>
+        <v>1042.854916160838</v>
       </c>
       <c r="M17" t="n">
-        <v>1577.548511415962</v>
+        <v>1577.548511415964</v>
       </c>
       <c r="N17" t="n">
-        <v>2125.507816426093</v>
+        <v>2125.507816426095</v>
       </c>
       <c r="O17" t="n">
-        <v>2629.59498860319</v>
+        <v>2629.594988603193</v>
       </c>
       <c r="P17" t="n">
-        <v>3025.320726728483</v>
+        <v>3025.320726728484</v>
       </c>
       <c r="Q17" t="n">
-        <v>3274.321529061169</v>
+        <v>3274.32152906117</v>
       </c>
       <c r="R17" t="n">
-        <v>3333.754180370042</v>
+        <v>3333.754180370044</v>
       </c>
       <c r="S17" t="n">
-        <v>3291.874587861969</v>
+        <v>3291.874587861971</v>
       </c>
       <c r="T17" t="n">
-        <v>3224.928524591197</v>
+        <v>3154.18364486632</v>
       </c>
       <c r="U17" t="n">
-        <v>3039.65584346268</v>
+        <v>2968.910963737803</v>
       </c>
       <c r="V17" t="n">
-        <v>2776.850211700049</v>
+        <v>2706.105331975173</v>
       </c>
       <c r="W17" t="n">
-        <v>2492.338812010876</v>
+        <v>2421.593932285999</v>
       </c>
       <c r="X17" t="n">
-        <v>2187.130309330737</v>
+        <v>2116.385429605859</v>
       </c>
       <c r="Y17" t="n">
-        <v>1865.248232935865</v>
+        <v>1794.503353210988</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>176.0250388280389</v>
       </c>
       <c r="H18" t="n">
-        <v>85.55802569246674</v>
+        <v>85.55802569246677</v>
       </c>
       <c r="I18" t="n">
-        <v>66.67508360740084</v>
+        <v>66.67508360740088</v>
       </c>
       <c r="J18" t="n">
-        <v>160.6867872982719</v>
+        <v>160.686787298272</v>
       </c>
       <c r="K18" t="n">
-        <v>399.5225875947483</v>
+        <v>399.5225875947486</v>
       </c>
       <c r="L18" t="n">
-        <v>761.0597749732281</v>
+        <v>766.9893364169336</v>
       </c>
       <c r="M18" t="n">
-        <v>1209.233006734175</v>
+        <v>1215.162568177881</v>
       </c>
       <c r="N18" t="n">
-        <v>1683.67669527451</v>
+        <v>1689.606256718216</v>
       </c>
       <c r="O18" t="n">
-        <v>2095.480184992048</v>
+        <v>2101.409746435754</v>
       </c>
       <c r="P18" t="n">
-        <v>2406.655724484057</v>
+        <v>2406.734022296206</v>
       </c>
       <c r="Q18" t="n">
-        <v>2564.749135478421</v>
+        <v>2564.82743329057</v>
       </c>
       <c r="R18" t="n">
         <v>2564.82743329057</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>613.8548522042902</v>
+        <v>613.8548522042929</v>
       </c>
       <c r="C19" t="n">
-        <v>513.1759248573238</v>
+        <v>513.1759248573262</v>
       </c>
       <c r="D19" t="n">
-        <v>431.3165410259286</v>
+        <v>431.3165410259306</v>
       </c>
       <c r="E19" t="n">
-        <v>351.6607030244761</v>
+        <v>351.6607030244777</v>
       </c>
       <c r="F19" t="n">
-        <v>273.0280111075063</v>
+        <v>273.0280111075075</v>
       </c>
       <c r="G19" t="n">
-        <v>173.5854579744662</v>
+        <v>173.585457974467</v>
       </c>
       <c r="H19" t="n">
-        <v>95.65244765737184</v>
+        <v>95.65244765737224</v>
       </c>
       <c r="I19" t="n">
-        <v>66.67508360740084</v>
+        <v>66.67508360740088</v>
       </c>
       <c r="J19" t="n">
         <v>112.0075293240292</v>
       </c>
       <c r="K19" t="n">
-        <v>316.3394999271003</v>
+        <v>316.3394999271006</v>
       </c>
       <c r="L19" t="n">
-        <v>669.1965785669631</v>
+        <v>669.1965785669686</v>
       </c>
       <c r="M19" t="n">
-        <v>1013.818817712778</v>
+        <v>1013.818817712784</v>
       </c>
       <c r="N19" t="n">
-        <v>1355.681326702138</v>
+        <v>1355.681326702143</v>
       </c>
       <c r="O19" t="n">
-        <v>1655.430390289798</v>
+        <v>1655.430390289804</v>
       </c>
       <c r="P19" t="n">
-        <v>1888.396815211048</v>
+        <v>1888.396815211054</v>
       </c>
       <c r="Q19" t="n">
-        <v>1966.255612074266</v>
+        <v>1966.255612074272</v>
       </c>
       <c r="R19" t="n">
-        <v>1944.818556315387</v>
+        <v>1944.818556315393</v>
       </c>
       <c r="S19" t="n">
-        <v>1821.442695959181</v>
+        <v>1821.442695959186</v>
       </c>
       <c r="T19" t="n">
-        <v>1667.94627354884</v>
+        <v>1667.946273548845</v>
       </c>
       <c r="U19" t="n">
-        <v>1447.100827414222</v>
+        <v>1447.100827414227</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.673594789276</v>
+        <v>1260.67359478928</v>
       </c>
       <c r="W19" t="n">
-        <v>1039.513680333256</v>
+        <v>1039.51368033326</v>
       </c>
       <c r="X19" t="n">
-        <v>879.781385016179</v>
+        <v>879.7813850161824</v>
       </c>
       <c r="Y19" t="n">
-        <v>727.2460614535894</v>
+        <v>727.2460614535925</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1893.714092817909</v>
+        <v>1476.160768727807</v>
       </c>
       <c r="C20" t="n">
-        <v>1593.008831458438</v>
+        <v>1175.455507368335</v>
       </c>
       <c r="D20" t="n">
-        <v>1303.000388432628</v>
+        <v>885.447064342525</v>
       </c>
       <c r="E20" t="n">
-        <v>985.4693914153248</v>
+        <v>567.9160673252209</v>
       </c>
       <c r="F20" t="n">
-        <v>642.7407422066578</v>
+        <v>413.4835279726265</v>
       </c>
       <c r="G20" t="n">
-        <v>295.9322978414328</v>
+        <v>66.67508360740088</v>
       </c>
       <c r="H20" t="n">
-        <v>66.67508360740084</v>
+        <v>66.67508360740088</v>
       </c>
       <c r="I20" t="n">
-        <v>66.67508360740084</v>
+        <v>66.67508360740088</v>
       </c>
       <c r="J20" t="n">
-        <v>256.1157290845827</v>
+        <v>256.1157290845815</v>
       </c>
       <c r="K20" t="n">
-        <v>590.7766674795212</v>
+        <v>590.7766674795198</v>
       </c>
       <c r="L20" t="n">
-        <v>1042.854916160838</v>
+        <v>1042.854916160837</v>
       </c>
       <c r="M20" t="n">
-        <v>1577.548511415964</v>
+        <v>1577.548511415963</v>
       </c>
       <c r="N20" t="n">
-        <v>2125.507816426094</v>
+        <v>2125.507816426093</v>
       </c>
       <c r="O20" t="n">
-        <v>2629.594988603192</v>
+        <v>2629.594988603194</v>
       </c>
       <c r="P20" t="n">
-        <v>3025.320726728483</v>
+        <v>3025.320726728485</v>
       </c>
       <c r="Q20" t="n">
-        <v>3274.321529061169</v>
+        <v>3274.321529061171</v>
       </c>
       <c r="R20" t="n">
-        <v>3333.754180370042</v>
+        <v>3333.754180370044</v>
       </c>
       <c r="S20" t="n">
-        <v>3333.754180370042</v>
+        <v>3291.874587861971</v>
       </c>
       <c r="T20" t="n">
-        <v>3333.754180370042</v>
+        <v>3154.18364486632</v>
       </c>
       <c r="U20" t="n">
-        <v>3333.754180370042</v>
+        <v>2968.910963737804</v>
       </c>
       <c r="V20" t="n">
-        <v>3123.658656065274</v>
+        <v>2706.105331975174</v>
       </c>
       <c r="W20" t="n">
-        <v>2839.147256376101</v>
+        <v>2421.593932285999</v>
       </c>
       <c r="X20" t="n">
-        <v>2533.938753695962</v>
+        <v>2116.38542960586</v>
       </c>
       <c r="Y20" t="n">
-        <v>2212.056677301091</v>
+        <v>1794.503353210988</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5439792362353</v>
+        <v>941.5439792362355</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0909499551083</v>
+        <v>767.0909499551085</v>
       </c>
       <c r="D21" t="n">
-        <v>618.156540293857</v>
+        <v>618.1565402938572</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9190852884016</v>
+        <v>458.9190852884017</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3845273152865</v>
+        <v>312.3845273152866</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0250388280389</v>
+        <v>176.025038828039</v>
       </c>
       <c r="H21" t="n">
-        <v>85.55802569246674</v>
+        <v>85.5580256924668</v>
       </c>
       <c r="I21" t="n">
-        <v>66.67508360740084</v>
+        <v>66.67508360740088</v>
       </c>
       <c r="J21" t="n">
         <v>160.6867872982719</v>
@@ -5844,22 +5844,22 @@
         <v>1689.606256718215</v>
       </c>
       <c r="O21" t="n">
-        <v>2101.409746435753</v>
+        <v>2095.480184992048</v>
       </c>
       <c r="P21" t="n">
-        <v>2412.585285927762</v>
+        <v>2406.655724484058</v>
       </c>
       <c r="Q21" t="n">
-        <v>2564.82743329057</v>
+        <v>2564.749135478422</v>
       </c>
       <c r="R21" t="n">
         <v>2564.82743329057</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.456632158474</v>
+        <v>2435.456632158475</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828189441783</v>
+        <v>2242.828189441784</v>
       </c>
       <c r="U21" t="n">
         <v>2014.760580186734</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>613.8548522042902</v>
+        <v>613.8548522042929</v>
       </c>
       <c r="C22" t="n">
-        <v>513.1759248573238</v>
+        <v>513.1759248573262</v>
       </c>
       <c r="D22" t="n">
-        <v>431.3165410259286</v>
+        <v>431.3165410259306</v>
       </c>
       <c r="E22" t="n">
-        <v>351.6607030244761</v>
+        <v>351.6607030244777</v>
       </c>
       <c r="F22" t="n">
-        <v>273.0280111075063</v>
+        <v>273.0280111075075</v>
       </c>
       <c r="G22" t="n">
-        <v>173.5854579744662</v>
+        <v>173.585457974467</v>
       </c>
       <c r="H22" t="n">
-        <v>95.65244765737184</v>
+        <v>95.65244765737225</v>
       </c>
       <c r="I22" t="n">
-        <v>66.67508360740084</v>
+        <v>66.67508360740088</v>
       </c>
       <c r="J22" t="n">
         <v>112.0075293240292</v>
       </c>
       <c r="K22" t="n">
-        <v>316.3394999271003</v>
+        <v>316.3394999271004</v>
       </c>
       <c r="L22" t="n">
         <v>633.3405078667313</v>
@@ -5923,37 +5923,37 @@
         <v>1319.825256001906</v>
       </c>
       <c r="O22" t="n">
-        <v>1655.430390289798</v>
+        <v>1619.574319589567</v>
       </c>
       <c r="P22" t="n">
-        <v>1888.396815211048</v>
+        <v>1888.396815211054</v>
       </c>
       <c r="Q22" t="n">
-        <v>1966.255612074266</v>
+        <v>1966.255612074272</v>
       </c>
       <c r="R22" t="n">
-        <v>1944.818556315387</v>
+        <v>1944.818556315393</v>
       </c>
       <c r="S22" t="n">
-        <v>1821.442695959181</v>
+        <v>1821.442695959186</v>
       </c>
       <c r="T22" t="n">
-        <v>1667.94627354884</v>
+        <v>1667.946273548845</v>
       </c>
       <c r="U22" t="n">
-        <v>1447.100827414222</v>
+        <v>1447.100827414227</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.673594789276</v>
+        <v>1260.67359478928</v>
       </c>
       <c r="W22" t="n">
-        <v>1039.513680333256</v>
+        <v>1039.51368033326</v>
       </c>
       <c r="X22" t="n">
-        <v>879.781385016179</v>
+        <v>879.7813850161824</v>
       </c>
       <c r="Y22" t="n">
-        <v>727.2460614535894</v>
+        <v>727.2460614535925</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1902.235589227912</v>
+        <v>1902.235589227914</v>
       </c>
       <c r="C23" t="n">
-        <v>1601.530327868441</v>
+        <v>1601.530327868443</v>
       </c>
       <c r="D23" t="n">
-        <v>1311.521884842631</v>
+        <v>1311.521884842632</v>
       </c>
       <c r="E23" t="n">
-        <v>993.9908878253269</v>
+        <v>993.9908878253282</v>
       </c>
       <c r="F23" t="n">
-        <v>651.2622386166599</v>
+        <v>651.2622386166609</v>
       </c>
       <c r="G23" t="n">
-        <v>304.4537942514349</v>
+        <v>304.4537942514354</v>
       </c>
       <c r="H23" t="n">
-        <v>75.19658001740291</v>
+        <v>75.19658001740302</v>
       </c>
       <c r="I23" t="n">
-        <v>75.19658001740291</v>
+        <v>75.19658001740302</v>
       </c>
       <c r="J23" t="n">
-        <v>432.0428745149366</v>
+        <v>264.6372254945837</v>
       </c>
       <c r="K23" t="n">
-        <v>766.7038129098748</v>
+        <v>599.2981638895219</v>
       </c>
       <c r="L23" t="n">
-        <v>1218.782061591192</v>
+        <v>1051.376412570839</v>
       </c>
       <c r="M23" t="n">
-        <v>1753.475656846318</v>
+        <v>1586.070007825965</v>
       </c>
       <c r="N23" t="n">
-        <v>2301.434961856448</v>
+        <v>2174.590457476086</v>
       </c>
       <c r="O23" t="n">
-        <v>2805.522134033546</v>
+        <v>3055.669809103302</v>
       </c>
       <c r="P23" t="n">
-        <v>3201.247872158837</v>
+        <v>3451.395547228592</v>
       </c>
       <c r="Q23" t="n">
-        <v>3635.33709388702</v>
+        <v>3700.396349561278</v>
       </c>
       <c r="R23" t="n">
-        <v>3759.829000870146</v>
+        <v>3759.829000870151</v>
       </c>
       <c r="S23" t="n">
-        <v>3717.949408362073</v>
+        <v>3717.949408362078</v>
       </c>
       <c r="T23" t="n">
-        <v>3580.258465366423</v>
+        <v>3580.258465366428</v>
       </c>
       <c r="U23" t="n">
-        <v>3394.985784237907</v>
+        <v>3394.985784237912</v>
       </c>
       <c r="V23" t="n">
-        <v>3132.180152475277</v>
+        <v>3132.180152475281</v>
       </c>
       <c r="W23" t="n">
-        <v>2847.668752786103</v>
+        <v>2847.668752786107</v>
       </c>
       <c r="X23" t="n">
-        <v>2542.460250105964</v>
+        <v>2542.460250105967</v>
       </c>
       <c r="Y23" t="n">
-        <v>2220.578173711093</v>
+        <v>2220.578173711096</v>
       </c>
     </row>
     <row r="24">
@@ -6042,52 +6042,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>950.0654756462374</v>
+        <v>950.0654756462376</v>
       </c>
       <c r="C24" t="n">
-        <v>775.6124463651104</v>
+        <v>775.6124463651106</v>
       </c>
       <c r="D24" t="n">
-        <v>626.6780367038591</v>
+        <v>626.6780367038593</v>
       </c>
       <c r="E24" t="n">
-        <v>467.4405816984037</v>
+        <v>467.4405816984038</v>
       </c>
       <c r="F24" t="n">
-        <v>320.9060237252886</v>
+        <v>320.9060237252887</v>
       </c>
       <c r="G24" t="n">
-        <v>184.546535238041</v>
+        <v>184.5465352380411</v>
       </c>
       <c r="H24" t="n">
-        <v>94.07952210246881</v>
+        <v>94.07952210246893</v>
       </c>
       <c r="I24" t="n">
-        <v>75.19658001740291</v>
+        <v>75.19658001740302</v>
       </c>
       <c r="J24" t="n">
-        <v>163.3570200767179</v>
+        <v>163.2787222645691</v>
       </c>
       <c r="K24" t="n">
-        <v>402.1928203731943</v>
+        <v>402.1145225610455</v>
       </c>
       <c r="L24" t="n">
-        <v>769.6595691953792</v>
+        <v>769.5812713832304</v>
       </c>
       <c r="M24" t="n">
-        <v>1217.832800956326</v>
+        <v>1217.754503144178</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.276489496661</v>
+        <v>1692.198191684512</v>
       </c>
       <c r="O24" t="n">
-        <v>2104.079979214199</v>
+        <v>2104.00168140205</v>
       </c>
       <c r="P24" t="n">
-        <v>2415.255518706208</v>
+        <v>2415.17722089406</v>
       </c>
       <c r="Q24" t="n">
-        <v>2573.348929700572</v>
+        <v>2573.270631888423</v>
       </c>
       <c r="R24" t="n">
         <v>2573.348929700572</v>
@@ -6111,7 +6111,7 @@
         <v>1326.041111431259</v>
       </c>
       <c r="Y24" t="n">
-        <v>1118.280812666305</v>
+        <v>1118.280812666306</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>622.3763486142923</v>
+        <v>622.376348614295</v>
       </c>
       <c r="C25" t="n">
-        <v>521.6974212673259</v>
+        <v>521.6974212673283</v>
       </c>
       <c r="D25" t="n">
-        <v>439.8380374359307</v>
+        <v>439.8380374359327</v>
       </c>
       <c r="E25" t="n">
-        <v>360.1821994344782</v>
+        <v>360.1821994344798</v>
       </c>
       <c r="F25" t="n">
-        <v>281.5495075175084</v>
+        <v>281.5495075175097</v>
       </c>
       <c r="G25" t="n">
-        <v>182.1069543844683</v>
+        <v>182.1069543844692</v>
       </c>
       <c r="H25" t="n">
-        <v>104.1739440673739</v>
+        <v>104.1739440673744</v>
       </c>
       <c r="I25" t="n">
-        <v>75.19658001740291</v>
+        <v>75.19658001740302</v>
       </c>
       <c r="J25" t="n">
-        <v>120.5290257340312</v>
+        <v>120.5290257340313</v>
       </c>
       <c r="K25" t="n">
-        <v>360.7170670373346</v>
+        <v>324.8609963371025</v>
       </c>
       <c r="L25" t="n">
-        <v>677.7180749769655</v>
+        <v>641.8620042767334</v>
       </c>
       <c r="M25" t="n">
-        <v>1022.340314122781</v>
+        <v>1022.340314122786</v>
       </c>
       <c r="N25" t="n">
-        <v>1364.20282311214</v>
+        <v>1364.202823112146</v>
       </c>
       <c r="O25" t="n">
-        <v>1663.951886699801</v>
+        <v>1663.951886699807</v>
       </c>
       <c r="P25" t="n">
-        <v>1896.91831162105</v>
+        <v>1896.918311621057</v>
       </c>
       <c r="Q25" t="n">
-        <v>1974.777108484268</v>
+        <v>1974.777108484275</v>
       </c>
       <c r="R25" t="n">
-        <v>1953.34005272539</v>
+        <v>1953.340052725395</v>
       </c>
       <c r="S25" t="n">
-        <v>1829.964192369183</v>
+        <v>1829.964192369188</v>
       </c>
       <c r="T25" t="n">
-        <v>1676.467769958842</v>
+        <v>1676.467769958847</v>
       </c>
       <c r="U25" t="n">
-        <v>1455.622323824224</v>
+        <v>1455.622323824229</v>
       </c>
       <c r="V25" t="n">
-        <v>1269.195091199278</v>
+        <v>1269.195091199282</v>
       </c>
       <c r="W25" t="n">
-        <v>1048.035176743258</v>
+        <v>1048.035176743262</v>
       </c>
       <c r="X25" t="n">
-        <v>888.3028814261811</v>
+        <v>888.3028814261845</v>
       </c>
       <c r="Y25" t="n">
-        <v>735.7675578635915</v>
+        <v>735.7675578635946</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2033.887202247774</v>
       </c>
       <c r="C26" t="n">
-        <v>1712.237366089688</v>
+        <v>1712.237366089689</v>
       </c>
       <c r="D26" t="n">
         <v>1401.284348265264</v>
@@ -6224,40 +6224,40 @@
         <v>81.18074424557847</v>
       </c>
       <c r="J26" t="n">
-        <v>387.5669434761383</v>
+        <v>270.6213897227591</v>
       </c>
       <c r="K26" t="n">
-        <v>722.2278818710765</v>
+        <v>605.2823281176973</v>
       </c>
       <c r="L26" t="n">
-        <v>1174.306130552393</v>
+        <v>1057.360576799014</v>
       </c>
       <c r="M26" t="n">
-        <v>1708.99972580752</v>
+        <v>1592.05417205414</v>
       </c>
       <c r="N26" t="n">
-        <v>2256.95903081765</v>
+        <v>2140.013477064271</v>
       </c>
       <c r="O26" t="n">
-        <v>2761.046202994748</v>
+        <v>2826.105458669</v>
       </c>
       <c r="P26" t="n">
-        <v>3475.352662209807</v>
+        <v>3540.411917884059</v>
       </c>
       <c r="Q26" t="n">
-        <v>3934.545305295798</v>
+        <v>3999.60456097005</v>
       </c>
       <c r="R26" t="n">
-        <v>4059.037212278924</v>
+        <v>4059.037212278923</v>
       </c>
       <c r="S26" t="n">
-        <v>3996.213044972237</v>
+        <v>3996.213044972236</v>
       </c>
       <c r="T26" t="n">
-        <v>3837.577527177973</v>
+        <v>3837.577527177972</v>
       </c>
       <c r="U26" t="n">
-        <v>3631.360271250842</v>
+        <v>3631.360271250841</v>
       </c>
       <c r="V26" t="n">
         <v>3347.610064689597</v>
@@ -6312,19 +6312,19 @@
         <v>781.4949970551107</v>
       </c>
       <c r="M27" t="n">
-        <v>1229.668228816058</v>
+        <v>1223.738667372353</v>
       </c>
       <c r="N27" t="n">
-        <v>1704.111917356392</v>
+        <v>1698.182355912688</v>
       </c>
       <c r="O27" t="n">
-        <v>2115.91540707393</v>
+        <v>2109.985845630225</v>
       </c>
       <c r="P27" t="n">
-        <v>2427.09094656594</v>
+        <v>2421.161385122235</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.333093928748</v>
+        <v>2579.254796116599</v>
       </c>
       <c r="R27" t="n">
         <v>2579.333093928748</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.9725364327689</v>
+        <v>774.9725364327692</v>
       </c>
       <c r="C28" t="n">
-        <v>653.3490342871881</v>
+        <v>653.3490342871884</v>
       </c>
       <c r="D28" t="n">
-        <v>550.5450756571786</v>
+        <v>550.5450756571788</v>
       </c>
       <c r="E28" t="n">
-        <v>449.9446628571117</v>
+        <v>449.9446628571119</v>
       </c>
       <c r="F28" t="n">
-        <v>350.3673961415275</v>
+        <v>350.3673961415277</v>
       </c>
       <c r="G28" t="n">
-        <v>229.980268209873</v>
+        <v>229.9802682098732</v>
       </c>
       <c r="H28" t="n">
         <v>131.1026830941639</v>
@@ -6382,31 +6382,31 @@
         <v>81.18074424557847</v>
       </c>
       <c r="J28" t="n">
-        <v>172.8843483969646</v>
+        <v>172.8843483969647</v>
       </c>
       <c r="K28" t="n">
-        <v>423.5874774347933</v>
+        <v>423.5874774347938</v>
       </c>
       <c r="L28" t="n">
-        <v>786.9596438091819</v>
+        <v>786.9596438091828</v>
       </c>
       <c r="M28" t="n">
-        <v>1177.953041389755</v>
+        <v>1177.953041389756</v>
       </c>
       <c r="N28" t="n">
-        <v>1566.186708813872</v>
+        <v>1566.186708813873</v>
       </c>
       <c r="O28" t="n">
-        <v>1912.306930836291</v>
+        <v>1912.306930836292</v>
       </c>
       <c r="P28" t="n">
-        <v>2191.644514192299</v>
+        <v>2191.6445141923</v>
       </c>
       <c r="Q28" t="n">
-        <v>2315.874469490274</v>
+        <v>2315.874469490275</v>
       </c>
       <c r="R28" t="n">
-        <v>2273.492838932781</v>
+        <v>2273.492838932782</v>
       </c>
       <c r="S28" t="n">
         <v>2129.17240377796</v>
@@ -6424,10 +6424,10 @@
         <v>1263.465088957578</v>
       </c>
       <c r="X28" t="n">
-        <v>1082.788218841886</v>
+        <v>1082.788218841887</v>
       </c>
       <c r="Y28" t="n">
-        <v>909.3083204806825</v>
+        <v>909.3083204806827</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2033.887202247774</v>
       </c>
       <c r="C29" t="n">
-        <v>1712.237366089688</v>
+        <v>1712.237366089689</v>
       </c>
       <c r="D29" t="n">
         <v>1401.284348265264</v>
@@ -6455,43 +6455,43 @@
         <v>331.3825332782249</v>
       </c>
       <c r="H29" t="n">
-        <v>81.18074424557848</v>
+        <v>81.18074424557847</v>
       </c>
       <c r="I29" t="n">
-        <v>81.18074424557848</v>
+        <v>81.18074424557847</v>
       </c>
       <c r="J29" t="n">
-        <v>438.0270387431121</v>
+        <v>270.6213897227591</v>
       </c>
       <c r="K29" t="n">
-        <v>772.6879771380504</v>
+        <v>605.2823281176973</v>
       </c>
       <c r="L29" t="n">
-        <v>1224.766225819367</v>
+        <v>1057.360576799014</v>
       </c>
       <c r="M29" t="n">
-        <v>1759.459821074493</v>
+        <v>1592.05417205414</v>
       </c>
       <c r="N29" t="n">
-        <v>2307.419126084624</v>
+        <v>2572.986932232135</v>
       </c>
       <c r="O29" t="n">
-        <v>2811.506298261721</v>
+        <v>3354.878020512074</v>
       </c>
       <c r="P29" t="n">
-        <v>3475.352662209807</v>
+        <v>3750.603758637365</v>
       </c>
       <c r="Q29" t="n">
-        <v>3934.545305295798</v>
+        <v>3999.60456097005</v>
       </c>
       <c r="R29" t="n">
         <v>4059.037212278924</v>
       </c>
       <c r="S29" t="n">
-        <v>3996.213044972237</v>
+        <v>3996.213044972236</v>
       </c>
       <c r="T29" t="n">
-        <v>3837.577527177973</v>
+        <v>3837.577527177972</v>
       </c>
       <c r="U29" t="n">
         <v>3631.360271250842</v>
@@ -6500,10 +6500,10 @@
         <v>3347.610064689597</v>
       </c>
       <c r="W29" t="n">
-        <v>3042.154090201809</v>
+        <v>3042.15409020181</v>
       </c>
       <c r="X29" t="n">
-        <v>2716.001012723055</v>
+        <v>2716.001012723056</v>
       </c>
       <c r="Y29" t="n">
         <v>2373.17436152957</v>
@@ -6537,7 +6537,7 @@
         <v>100.0636863306444</v>
       </c>
       <c r="I30" t="n">
-        <v>81.18074424557848</v>
+        <v>81.18074424557847</v>
       </c>
       <c r="J30" t="n">
         <v>175.1924479364495</v>
@@ -6546,22 +6546,22 @@
         <v>414.0282482329259</v>
       </c>
       <c r="L30" t="n">
-        <v>781.4949970551108</v>
+        <v>781.4949970551107</v>
       </c>
       <c r="M30" t="n">
-        <v>1229.668228816058</v>
+        <v>1223.738667372353</v>
       </c>
       <c r="N30" t="n">
-        <v>1704.111917356393</v>
+        <v>1698.182355912688</v>
       </c>
       <c r="O30" t="n">
-        <v>2115.915407073931</v>
+        <v>2109.985845630225</v>
       </c>
       <c r="P30" t="n">
-        <v>2427.09094656594</v>
+        <v>2421.161385122235</v>
       </c>
       <c r="Q30" t="n">
-        <v>2579.333093928748</v>
+        <v>2579.254796116599</v>
       </c>
       <c r="R30" t="n">
         <v>2579.333093928748</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.9725364327689</v>
+        <v>774.9725364327679</v>
       </c>
       <c r="C31" t="n">
-        <v>653.3490342871881</v>
+        <v>653.3490342871871</v>
       </c>
       <c r="D31" t="n">
-        <v>550.5450756571786</v>
+        <v>550.5450756571776</v>
       </c>
       <c r="E31" t="n">
-        <v>449.9446628571116</v>
+        <v>449.9446628571106</v>
       </c>
       <c r="F31" t="n">
-        <v>350.3673961415274</v>
+        <v>350.3673961415263</v>
       </c>
       <c r="G31" t="n">
-        <v>229.9802682098729</v>
+        <v>229.9802682098718</v>
       </c>
       <c r="H31" t="n">
-        <v>131.102683094164</v>
+        <v>131.102683094163</v>
       </c>
       <c r="I31" t="n">
-        <v>81.18074424557848</v>
+        <v>81.18074424557847</v>
       </c>
       <c r="J31" t="n">
-        <v>172.8843483969646</v>
+        <v>172.8843483969644</v>
       </c>
       <c r="K31" t="n">
-        <v>423.587477434794</v>
+        <v>423.5874774347934</v>
       </c>
       <c r="L31" t="n">
-        <v>786.9596438091828</v>
+        <v>786.9596438091821</v>
       </c>
       <c r="M31" t="n">
-        <v>1177.953041389756</v>
+        <v>1177.953041389755</v>
       </c>
       <c r="N31" t="n">
-        <v>1566.186708813873</v>
+        <v>1566.186708813872</v>
       </c>
       <c r="O31" t="n">
-        <v>1912.306930836292</v>
+        <v>1912.306930836291</v>
       </c>
       <c r="P31" t="n">
-        <v>2191.6445141923</v>
+        <v>2191.644514192299</v>
       </c>
       <c r="Q31" t="n">
-        <v>2315.874469490275</v>
+        <v>2315.874469490274</v>
       </c>
       <c r="R31" t="n">
-        <v>2273.492838932782</v>
+        <v>2273.492838932781</v>
       </c>
       <c r="S31" t="n">
         <v>2129.17240377796</v>
       </c>
       <c r="T31" t="n">
-        <v>1954.731406569005</v>
+        <v>1954.731406569004</v>
       </c>
       <c r="U31" t="n">
-        <v>1712.941385635773</v>
+        <v>1712.941385635772</v>
       </c>
       <c r="V31" t="n">
-        <v>1505.569578212212</v>
+        <v>1505.569578212211</v>
       </c>
       <c r="W31" t="n">
-        <v>1263.465088957578</v>
+        <v>1263.465088957577</v>
       </c>
       <c r="X31" t="n">
         <v>1082.788218841886</v>
       </c>
       <c r="Y31" t="n">
-        <v>909.3083204806825</v>
+        <v>909.3083204806815</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.887202247775</v>
+        <v>2033.887202247774</v>
       </c>
       <c r="C32" t="n">
-        <v>1712.237366089689</v>
+        <v>1712.237366089688</v>
       </c>
       <c r="D32" t="n">
-        <v>1401.284348265265</v>
+        <v>1401.284348265263</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.808776449347</v>
+        <v>1062.808776449345</v>
       </c>
       <c r="F32" t="n">
-        <v>699.1355524420652</v>
+        <v>699.1355524420637</v>
       </c>
       <c r="G32" t="n">
         <v>331.3825332782249</v>
       </c>
       <c r="H32" t="n">
-        <v>81.1807442455785</v>
+        <v>81.18074424557847</v>
       </c>
       <c r="I32" t="n">
-        <v>81.1807442455785</v>
+        <v>81.18074424557847</v>
       </c>
       <c r="J32" t="n">
-        <v>438.0270387431121</v>
+        <v>270.6213897227591</v>
       </c>
       <c r="K32" t="n">
-        <v>772.6879771380504</v>
+        <v>818.0269885462858</v>
       </c>
       <c r="L32" t="n">
-        <v>1224.766225819367</v>
+        <v>1270.105237227603</v>
       </c>
       <c r="M32" t="n">
-        <v>1759.459821074493</v>
+        <v>1804.798832482729</v>
       </c>
       <c r="N32" t="n">
-        <v>2307.419126084624</v>
+        <v>2785.731592660723</v>
       </c>
       <c r="O32" t="n">
-        <v>2811.506298261721</v>
+        <v>3289.818764837821</v>
       </c>
       <c r="P32" t="n">
-        <v>3475.352662209807</v>
+        <v>3685.544502963112</v>
       </c>
       <c r="Q32" t="n">
-        <v>3934.545305295799</v>
+        <v>3934.545305295797</v>
       </c>
       <c r="R32" t="n">
-        <v>4059.037212278924</v>
+        <v>4059.037212278923</v>
       </c>
       <c r="S32" t="n">
-        <v>3996.213044972238</v>
+        <v>3996.213044972235</v>
       </c>
       <c r="T32" t="n">
-        <v>3837.577527177973</v>
+        <v>3837.577527177971</v>
       </c>
       <c r="U32" t="n">
-        <v>3631.360271250842</v>
+        <v>3631.360271250841</v>
       </c>
       <c r="V32" t="n">
-        <v>3347.610064689598</v>
+        <v>3347.610064689597</v>
       </c>
       <c r="W32" t="n">
-        <v>3042.15409020181</v>
+        <v>3042.154090201809</v>
       </c>
       <c r="X32" t="n">
-        <v>2716.001012723056</v>
+        <v>2716.001012723055</v>
       </c>
       <c r="Y32" t="n">
-        <v>2373.17436152957</v>
+        <v>2373.174361529569</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6774,25 @@
         <v>100.0636863306444</v>
       </c>
       <c r="I33" t="n">
-        <v>81.1807442455785</v>
+        <v>81.18074424557847</v>
       </c>
       <c r="J33" t="n">
-        <v>169.2628864927445</v>
+        <v>175.1924479364495</v>
       </c>
       <c r="K33" t="n">
-        <v>408.0986867892209</v>
+        <v>414.0282482329259</v>
       </c>
       <c r="L33" t="n">
-        <v>775.5654356114057</v>
+        <v>781.4949970551107</v>
       </c>
       <c r="M33" t="n">
-        <v>1223.738667372353</v>
+        <v>1229.668228816058</v>
       </c>
       <c r="N33" t="n">
-        <v>1698.182355912688</v>
+        <v>1704.111917356392</v>
       </c>
       <c r="O33" t="n">
-        <v>2109.985845630225</v>
+        <v>2115.91540707393</v>
       </c>
       <c r="P33" t="n">
         <v>2421.161385122235</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.9725364327689</v>
+        <v>774.9725364327683</v>
       </c>
       <c r="C34" t="n">
-        <v>653.3490342871881</v>
+        <v>653.3490342871875</v>
       </c>
       <c r="D34" t="n">
-        <v>550.5450756571786</v>
+        <v>550.5450756571779</v>
       </c>
       <c r="E34" t="n">
-        <v>449.9446628571117</v>
+        <v>449.944662857111</v>
       </c>
       <c r="F34" t="n">
-        <v>350.3673961415275</v>
+        <v>350.3673961415268</v>
       </c>
       <c r="G34" t="n">
-        <v>229.980268209873</v>
+        <v>229.9802682098723</v>
       </c>
       <c r="H34" t="n">
-        <v>131.1026830941643</v>
+        <v>131.1026830941639</v>
       </c>
       <c r="I34" t="n">
-        <v>81.1807442455785</v>
+        <v>81.18074424557847</v>
       </c>
       <c r="J34" t="n">
         <v>172.8843483969646</v>
@@ -6865,10 +6865,10 @@
         <v>786.9596438091824</v>
       </c>
       <c r="M34" t="n">
-        <v>1177.953041389756</v>
+        <v>1177.953041389755</v>
       </c>
       <c r="N34" t="n">
-        <v>1566.186708813873</v>
+        <v>1566.186708813872</v>
       </c>
       <c r="O34" t="n">
         <v>1912.306930836291</v>
@@ -6877,10 +6877,10 @@
         <v>2191.644514192299</v>
       </c>
       <c r="Q34" t="n">
-        <v>2315.874469490274</v>
+        <v>2315.874469490275</v>
       </c>
       <c r="R34" t="n">
-        <v>2273.492838932781</v>
+        <v>2273.492838932782</v>
       </c>
       <c r="S34" t="n">
         <v>2129.17240377796</v>
@@ -6889,19 +6889,19 @@
         <v>1954.731406569005</v>
       </c>
       <c r="U34" t="n">
-        <v>1712.941385635773</v>
+        <v>1712.941385635772</v>
       </c>
       <c r="V34" t="n">
         <v>1505.569578212212</v>
       </c>
       <c r="W34" t="n">
-        <v>1263.465088957578</v>
+        <v>1263.465088957577</v>
       </c>
       <c r="X34" t="n">
         <v>1082.788218841886</v>
       </c>
       <c r="Y34" t="n">
-        <v>909.3083204806825</v>
+        <v>909.3083204806818</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1868.144821778728</v>
+        <v>1868.144821778727</v>
       </c>
       <c r="C35" t="n">
-        <v>1572.863091604355</v>
+        <v>1572.863091604353</v>
       </c>
       <c r="D35" t="n">
-        <v>1288.278179763642</v>
+        <v>1288.278179763641</v>
       </c>
       <c r="E35" t="n">
-        <v>976.1707139314362</v>
+        <v>976.1707139314346</v>
       </c>
       <c r="F35" t="n">
-        <v>638.8655959078669</v>
+        <v>638.8655959078656</v>
       </c>
       <c r="G35" t="n">
         <v>297.480682727738</v>
@@ -6935,28 +6935,28 @@
         <v>73.64699967880364</v>
       </c>
       <c r="J35" t="n">
-        <v>430.4932941763373</v>
+        <v>263.0876451559843</v>
       </c>
       <c r="K35" t="n">
-        <v>765.1542325712755</v>
+        <v>918.6525419963756</v>
       </c>
       <c r="L35" t="n">
-        <v>1217.232481252592</v>
+        <v>1370.730790677692</v>
       </c>
       <c r="M35" t="n">
-        <v>1751.926076507719</v>
+        <v>1926.144314986105</v>
       </c>
       <c r="N35" t="n">
-        <v>2299.885381517849</v>
+        <v>2474.103619996235</v>
       </c>
       <c r="O35" t="n">
-        <v>2803.972553694947</v>
+        <v>2978.190792173333</v>
       </c>
       <c r="P35" t="n">
-        <v>3199.698291820238</v>
+        <v>3373.916530298623</v>
       </c>
       <c r="Q35" t="n">
-        <v>3557.858076957056</v>
+        <v>3622.917332631309</v>
       </c>
       <c r="R35" t="n">
         <v>3682.349983940182</v>
@@ -6968,19 +6968,19 @@
         <v>3513.626510806655</v>
       </c>
       <c r="U35" t="n">
-        <v>3333.777360863236</v>
+        <v>3333.777360863235</v>
       </c>
       <c r="V35" t="n">
-        <v>3076.395260285703</v>
+        <v>3076.395260285702</v>
       </c>
       <c r="W35" t="n">
-        <v>2797.307391781627</v>
+        <v>2797.307391781626</v>
       </c>
       <c r="X35" t="n">
-        <v>2497.522420286585</v>
+        <v>2497.522420286584</v>
       </c>
       <c r="Y35" t="n">
-        <v>2181.063875076812</v>
+        <v>2181.06387507681</v>
       </c>
     </row>
     <row r="36">
@@ -7029,13 +7029,13 @@
         <v>1696.578172789618</v>
       </c>
       <c r="O36" t="n">
-        <v>2108.381662507155</v>
+        <v>2102.452101063451</v>
       </c>
       <c r="P36" t="n">
-        <v>2419.557201999165</v>
+        <v>2413.62764055546</v>
       </c>
       <c r="Q36" t="n">
-        <v>2571.799349361973</v>
+        <v>2571.721051549824</v>
       </c>
       <c r="R36" t="n">
         <v>2571.799349361973</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>633.7824782413395</v>
+        <v>582.8620499800102</v>
       </c>
       <c r="C37" t="n">
-        <v>538.5270820794708</v>
+        <v>487.6066538181414</v>
       </c>
       <c r="D37" t="n">
-        <v>462.0912294331732</v>
+        <v>411.1708011718437</v>
       </c>
       <c r="E37" t="n">
-        <v>336.9384943554886</v>
+        <v>336.9384943554887</v>
       </c>
       <c r="F37" t="n">
-        <v>263.7293336236164</v>
+        <v>263.7293336236165</v>
       </c>
       <c r="G37" t="n">
         <v>169.7103116756739</v>
       </c>
       <c r="H37" t="n">
-        <v>97.20083254367705</v>
+        <v>97.20083254367708</v>
       </c>
       <c r="I37" t="n">
         <v>73.64699967880364</v>
@@ -7120,25 +7120,25 @@
         <v>1921.357932871656</v>
       </c>
       <c r="S37" t="n">
-        <v>1803.405603700547</v>
+        <v>1803.405603700546</v>
       </c>
       <c r="T37" t="n">
-        <v>1655.332712475303</v>
+        <v>1604.412284213974</v>
       </c>
       <c r="U37" t="n">
-        <v>1439.910797525783</v>
+        <v>1388.990369264454</v>
       </c>
       <c r="V37" t="n">
-        <v>1258.907096085935</v>
+        <v>1207.986667824605</v>
       </c>
       <c r="W37" t="n">
-        <v>1043.170712815012</v>
+        <v>992.2502845536828</v>
       </c>
       <c r="X37" t="n">
-        <v>888.861948683033</v>
+        <v>837.9415204217037</v>
       </c>
       <c r="Y37" t="n">
-        <v>741.7501563055411</v>
+        <v>690.8297280442117</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1868.144821778728</v>
+        <v>1868.144821778727</v>
       </c>
       <c r="C38" t="n">
         <v>1572.863091604354</v>
       </c>
       <c r="D38" t="n">
-        <v>1288.278179763642</v>
+        <v>1288.278179763641</v>
       </c>
       <c r="E38" t="n">
-        <v>976.1707139314358</v>
+        <v>976.1707139314353</v>
       </c>
       <c r="F38" t="n">
-        <v>638.8655959078658</v>
+        <v>638.8655959078662</v>
       </c>
       <c r="G38" t="n">
-        <v>297.4806827277384</v>
+        <v>297.4806827277381</v>
       </c>
       <c r="H38" t="n">
-        <v>73.64699967880368</v>
+        <v>73.64699967880364</v>
       </c>
       <c r="I38" t="n">
-        <v>73.64699967880368</v>
+        <v>73.64699967880364</v>
       </c>
       <c r="J38" t="n">
-        <v>430.4932941763374</v>
+        <v>263.0876451559843</v>
       </c>
       <c r="K38" t="n">
-        <v>765.1542325712755</v>
+        <v>918.6525419963756</v>
       </c>
       <c r="L38" t="n">
-        <v>1217.232481252592</v>
+        <v>1370.730790677692</v>
       </c>
       <c r="M38" t="n">
-        <v>1751.926076507719</v>
+        <v>1926.144314986105</v>
       </c>
       <c r="N38" t="n">
-        <v>2299.885381517849</v>
+        <v>2474.103619996235</v>
       </c>
       <c r="O38" t="n">
-        <v>2803.972553694947</v>
+        <v>2978.190792173333</v>
       </c>
       <c r="P38" t="n">
-        <v>3199.698291820238</v>
+        <v>3373.916530298623</v>
       </c>
       <c r="Q38" t="n">
-        <v>3557.858076957058</v>
+        <v>3622.917332631309</v>
       </c>
       <c r="R38" t="n">
-        <v>3682.349983940184</v>
+        <v>3682.349983940182</v>
       </c>
       <c r="S38" t="n">
-        <v>3645.893922617209</v>
+        <v>3645.893922617207</v>
       </c>
       <c r="T38" t="n">
-        <v>3513.626510806656</v>
+        <v>3513.626510806655</v>
       </c>
       <c r="U38" t="n">
-        <v>3333.777360863238</v>
+        <v>3333.777360863236</v>
       </c>
       <c r="V38" t="n">
-        <v>3076.395260285705</v>
+        <v>3076.395260285703</v>
       </c>
       <c r="W38" t="n">
-        <v>2797.307391781628</v>
+        <v>2797.307391781627</v>
       </c>
       <c r="X38" t="n">
-        <v>2497.522420286586</v>
+        <v>2497.522420286585</v>
       </c>
       <c r="Y38" t="n">
-        <v>2181.063875076812</v>
+        <v>2181.063875076811</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>948.5158953076383</v>
+        <v>948.5158953076381</v>
       </c>
       <c r="C39" t="n">
-        <v>774.0628660265113</v>
+        <v>774.0628660265111</v>
       </c>
       <c r="D39" t="n">
-        <v>625.12845636526</v>
+        <v>625.1284563652598</v>
       </c>
       <c r="E39" t="n">
-        <v>465.8910013598045</v>
+        <v>465.8910013598044</v>
       </c>
       <c r="F39" t="n">
-        <v>319.3564433866894</v>
+        <v>319.3564433866893</v>
       </c>
       <c r="G39" t="n">
-        <v>182.9969548994418</v>
+        <v>182.9969548994417</v>
       </c>
       <c r="H39" t="n">
-        <v>92.5299417638696</v>
+        <v>92.52994176386954</v>
       </c>
       <c r="I39" t="n">
-        <v>73.64699967880368</v>
+        <v>73.64699967880364</v>
       </c>
       <c r="J39" t="n">
         <v>167.6587033696747</v>
@@ -7263,16 +7263,16 @@
         <v>1222.134484249283</v>
       </c>
       <c r="N39" t="n">
-        <v>1696.578172789618</v>
+        <v>1690.648611345913</v>
       </c>
       <c r="O39" t="n">
-        <v>2108.381662507155</v>
+        <v>2102.452101063451</v>
       </c>
       <c r="P39" t="n">
-        <v>2419.557201999165</v>
+        <v>2413.62764055546</v>
       </c>
       <c r="Q39" t="n">
-        <v>2571.799349361973</v>
+        <v>2571.721051549824</v>
       </c>
       <c r="R39" t="n">
         <v>2571.799349361973</v>
@@ -7287,7 +7287,7 @@
         <v>2021.732496258137</v>
       </c>
       <c r="V39" t="n">
-        <v>1786.580388026395</v>
+        <v>1786.580388026394</v>
       </c>
       <c r="W39" t="n">
         <v>1532.343031298193</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>582.8620499800121</v>
+        <v>582.8620499800105</v>
       </c>
       <c r="C40" t="n">
-        <v>487.606653818143</v>
+        <v>487.6066538181417</v>
       </c>
       <c r="D40" t="n">
-        <v>411.1708011718451</v>
+        <v>411.170801171844</v>
       </c>
       <c r="E40" t="n">
-        <v>336.9384943554899</v>
+        <v>336.938494355489</v>
       </c>
       <c r="F40" t="n">
-        <v>263.7293336236173</v>
+        <v>263.7293336236166</v>
       </c>
       <c r="G40" t="n">
-        <v>169.7103116756745</v>
+        <v>169.7103116756741</v>
       </c>
       <c r="H40" t="n">
-        <v>97.20083254367739</v>
+        <v>97.20083254367714</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64699967880368</v>
+        <v>73.64699967880364</v>
       </c>
       <c r="J40" t="n">
         <v>118.979445395432</v>
@@ -7363,19 +7363,19 @@
         <v>1655.332712475303</v>
       </c>
       <c r="U40" t="n">
-        <v>1439.910797525782</v>
+        <v>1439.910797525783</v>
       </c>
       <c r="V40" t="n">
-        <v>1207.986667824609</v>
+        <v>1258.907096085934</v>
       </c>
       <c r="W40" t="n">
-        <v>992.2502845536858</v>
+        <v>1043.170712815012</v>
       </c>
       <c r="X40" t="n">
-        <v>837.9415204217063</v>
+        <v>888.8619486830324</v>
       </c>
       <c r="Y40" t="n">
-        <v>690.829728044214</v>
+        <v>690.8297280442122</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2026.353457680999</v>
+        <v>1657.199973909031</v>
       </c>
       <c r="C41" t="n">
-        <v>1704.703621522914</v>
+        <v>1335.550137750946</v>
       </c>
       <c r="D41" t="n">
-        <v>1393.750603698489</v>
+        <v>1335.550137750946</v>
       </c>
       <c r="E41" t="n">
         <v>1055.275031882571</v>
       </c>
       <c r="F41" t="n">
-        <v>691.6018078752896</v>
+        <v>691.6018078752898</v>
       </c>
       <c r="G41" t="n">
         <v>323.8487887114501</v>
       </c>
       <c r="H41" t="n">
-        <v>73.64699967880368</v>
+        <v>73.64699967880364</v>
       </c>
       <c r="I41" t="n">
-        <v>73.64699967880368</v>
+        <v>73.64699967880364</v>
       </c>
       <c r="J41" t="n">
-        <v>263.0876451559843</v>
+        <v>430.4932941763373</v>
       </c>
       <c r="K41" t="n">
-        <v>597.7485835509226</v>
+        <v>765.1542325712755</v>
       </c>
       <c r="L41" t="n">
-        <v>1049.826832232239</v>
+        <v>1217.232481252592</v>
       </c>
       <c r="M41" t="n">
-        <v>1926.144314986107</v>
+        <v>1751.926076507719</v>
       </c>
       <c r="N41" t="n">
-        <v>2474.103619996237</v>
+        <v>2299.885381517849</v>
       </c>
       <c r="O41" t="n">
-        <v>2978.190792173335</v>
+        <v>2978.190792173333</v>
       </c>
       <c r="P41" t="n">
-        <v>3373.916530298625</v>
+        <v>3373.916530298623</v>
       </c>
       <c r="Q41" t="n">
-        <v>3622.917332631311</v>
+        <v>3622.917332631309</v>
       </c>
       <c r="R41" t="n">
-        <v>3682.349983940184</v>
+        <v>3682.349983940182</v>
       </c>
       <c r="S41" t="n">
-        <v>3619.525816633497</v>
+        <v>3619.525816633495</v>
       </c>
       <c r="T41" t="n">
-        <v>3619.525816633497</v>
+        <v>3460.89029883923</v>
       </c>
       <c r="U41" t="n">
-        <v>3619.525816633497</v>
+        <v>3254.673042912099</v>
       </c>
       <c r="V41" t="n">
-        <v>3340.076320122822</v>
+        <v>2970.922836350855</v>
       </c>
       <c r="W41" t="n">
-        <v>3034.620345635034</v>
+        <v>2665.466861863067</v>
       </c>
       <c r="X41" t="n">
-        <v>2708.467268156281</v>
+        <v>2339.313784384313</v>
       </c>
       <c r="Y41" t="n">
-        <v>2365.640616962795</v>
+        <v>1996.487133190827</v>
       </c>
     </row>
     <row r="42">
@@ -7464,52 +7464,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>948.5158953076383</v>
+        <v>948.5158953076381</v>
       </c>
       <c r="C42" t="n">
-        <v>774.0628660265113</v>
+        <v>774.0628660265111</v>
       </c>
       <c r="D42" t="n">
-        <v>625.12845636526</v>
+        <v>625.1284563652598</v>
       </c>
       <c r="E42" t="n">
-        <v>465.8910013598045</v>
+        <v>465.8910013598044</v>
       </c>
       <c r="F42" t="n">
-        <v>319.3564433866894</v>
+        <v>319.3564433866893</v>
       </c>
       <c r="G42" t="n">
-        <v>182.9969548994418</v>
+        <v>182.9969548994417</v>
       </c>
       <c r="H42" t="n">
-        <v>92.5299417638696</v>
+        <v>92.52994176386954</v>
       </c>
       <c r="I42" t="n">
-        <v>73.64699967880368</v>
+        <v>73.64699967880364</v>
       </c>
       <c r="J42" t="n">
-        <v>167.6587033696747</v>
+        <v>161.7291419259698</v>
       </c>
       <c r="K42" t="n">
-        <v>406.4945036661511</v>
+        <v>400.5649422224462</v>
       </c>
       <c r="L42" t="n">
-        <v>773.961252488336</v>
+        <v>768.0316910446311</v>
       </c>
       <c r="M42" t="n">
-        <v>1222.134484249283</v>
+        <v>1216.204922805578</v>
       </c>
       <c r="N42" t="n">
-        <v>1696.578172789618</v>
+        <v>1690.648611345913</v>
       </c>
       <c r="O42" t="n">
-        <v>2108.381662507155</v>
+        <v>2102.452101063451</v>
       </c>
       <c r="P42" t="n">
-        <v>2419.557201999165</v>
+        <v>2413.62764055546</v>
       </c>
       <c r="Q42" t="n">
-        <v>2571.799349361973</v>
+        <v>2571.721051549824</v>
       </c>
       <c r="R42" t="n">
         <v>2571.799349361973</v>
@@ -7524,7 +7524,7 @@
         <v>2021.732496258137</v>
       </c>
       <c r="V42" t="n">
-        <v>1786.580388026395</v>
+        <v>1786.580388026394</v>
       </c>
       <c r="W42" t="n">
         <v>1532.343031298193</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>767.4387918659941</v>
+        <v>767.4387918659947</v>
       </c>
       <c r="C43" t="n">
-        <v>645.8152897204133</v>
+        <v>645.8152897204138</v>
       </c>
       <c r="D43" t="n">
-        <v>543.0113310904037</v>
+        <v>543.0113310904042</v>
       </c>
       <c r="E43" t="n">
-        <v>442.4109182903367</v>
+        <v>442.4109182903371</v>
       </c>
       <c r="F43" t="n">
-        <v>342.8336515747525</v>
+        <v>342.8336515747528</v>
       </c>
       <c r="G43" t="n">
-        <v>222.4465236430979</v>
+        <v>222.4465236430981</v>
       </c>
       <c r="H43" t="n">
-        <v>123.5689385273891</v>
+        <v>123.5689385273892</v>
       </c>
       <c r="I43" t="n">
-        <v>73.64699967880368</v>
+        <v>73.64699967880364</v>
       </c>
       <c r="J43" t="n">
-        <v>165.3506038301898</v>
+        <v>165.3506038301897</v>
       </c>
       <c r="K43" t="n">
-        <v>416.0537328680189</v>
+        <v>416.0537328680186</v>
       </c>
       <c r="L43" t="n">
-        <v>779.4258992424077</v>
+        <v>779.4258992424072</v>
       </c>
       <c r="M43" t="n">
-        <v>1170.419296822981</v>
+        <v>1170.41929682298</v>
       </c>
       <c r="N43" t="n">
-        <v>1558.652964247098</v>
+        <v>1558.6529642471</v>
       </c>
       <c r="O43" t="n">
-        <v>1904.773186269516</v>
+        <v>1904.773186269518</v>
       </c>
       <c r="P43" t="n">
-        <v>2184.110769625524</v>
+        <v>2184.110769625526</v>
       </c>
       <c r="Q43" t="n">
-        <v>2308.3407249235</v>
+        <v>2308.340724923502</v>
       </c>
       <c r="R43" t="n">
-        <v>2265.959094366007</v>
+        <v>2265.959094366008</v>
       </c>
       <c r="S43" t="n">
-        <v>2121.638659211186</v>
+        <v>2121.638659211187</v>
       </c>
       <c r="T43" t="n">
         <v>1947.197662002231</v>
       </c>
       <c r="U43" t="n">
-        <v>1705.407641068998</v>
+        <v>1705.407641068999</v>
       </c>
       <c r="V43" t="n">
         <v>1498.035833645438</v>
       </c>
       <c r="W43" t="n">
-        <v>1255.931344390803</v>
+        <v>1255.931344390804</v>
       </c>
       <c r="X43" t="n">
         <v>1075.254474275112</v>
       </c>
       <c r="Y43" t="n">
-        <v>901.7745759139076</v>
+        <v>901.7745759139084</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2026.353457680999</v>
+        <v>1657.199973909032</v>
       </c>
       <c r="C44" t="n">
-        <v>1704.703621522914</v>
+        <v>1335.550137750947</v>
       </c>
       <c r="D44" t="n">
-        <v>1393.750603698489</v>
+        <v>1024.597119926522</v>
       </c>
       <c r="E44" t="n">
-        <v>1055.275031882571</v>
+        <v>1024.597119926522</v>
       </c>
       <c r="F44" t="n">
-        <v>691.6018078752896</v>
+        <v>660.9238959192405</v>
       </c>
       <c r="G44" t="n">
-        <v>323.8487887114501</v>
+        <v>293.1708767554009</v>
       </c>
       <c r="H44" t="n">
-        <v>73.64699967880368</v>
+        <v>73.64699967880364</v>
       </c>
       <c r="I44" t="n">
-        <v>73.64699967880368</v>
+        <v>73.64699967880364</v>
       </c>
       <c r="J44" t="n">
-        <v>430.4932941763374</v>
+        <v>263.0876451559843</v>
       </c>
       <c r="K44" t="n">
-        <v>765.1542325712758</v>
+        <v>597.7485835509226</v>
       </c>
       <c r="L44" t="n">
-        <v>1217.232481252593</v>
+        <v>1049.82683223224</v>
       </c>
       <c r="M44" t="n">
-        <v>1751.926076507719</v>
+        <v>1861.085059311851</v>
       </c>
       <c r="N44" t="n">
-        <v>2299.88538151785</v>
+        <v>2409.044364321981</v>
       </c>
       <c r="O44" t="n">
-        <v>2803.972553694948</v>
+        <v>2913.131536499079</v>
       </c>
       <c r="P44" t="n">
-        <v>3199.698291820239</v>
+        <v>3308.85727462437</v>
       </c>
       <c r="Q44" t="n">
-        <v>3557.858076957058</v>
+        <v>3557.858076957056</v>
       </c>
       <c r="R44" t="n">
-        <v>3682.349983940184</v>
+        <v>3682.349983940182</v>
       </c>
       <c r="S44" t="n">
-        <v>3619.525816633497</v>
+        <v>3619.525816633495</v>
       </c>
       <c r="T44" t="n">
-        <v>3619.525816633497</v>
+        <v>3460.890298839231</v>
       </c>
       <c r="U44" t="n">
-        <v>3619.525816633497</v>
+        <v>3254.6730429121</v>
       </c>
       <c r="V44" t="n">
-        <v>3340.076320122822</v>
+        <v>2970.922836350856</v>
       </c>
       <c r="W44" t="n">
-        <v>3034.620345635034</v>
+        <v>2665.466861863068</v>
       </c>
       <c r="X44" t="n">
-        <v>2708.467268156281</v>
+        <v>2339.313784384314</v>
       </c>
       <c r="Y44" t="n">
-        <v>2365.640616962795</v>
+        <v>1996.487133190828</v>
       </c>
     </row>
     <row r="45">
@@ -7713,37 +7713,37 @@
         <v>465.8910013598044</v>
       </c>
       <c r="F45" t="n">
-        <v>319.3564433866894</v>
+        <v>319.3564433866893</v>
       </c>
       <c r="G45" t="n">
-        <v>182.9969548994418</v>
+        <v>182.9969548994417</v>
       </c>
       <c r="H45" t="n">
-        <v>92.52994176386957</v>
+        <v>92.52994176386954</v>
       </c>
       <c r="I45" t="n">
-        <v>73.64699967880368</v>
+        <v>73.64699967880364</v>
       </c>
       <c r="J45" t="n">
-        <v>161.7291419259691</v>
+        <v>167.6587033696747</v>
       </c>
       <c r="K45" t="n">
-        <v>400.5649422224456</v>
+        <v>406.4945036661512</v>
       </c>
       <c r="L45" t="n">
-        <v>768.0316910446305</v>
+        <v>773.9612524883361</v>
       </c>
       <c r="M45" t="n">
-        <v>1216.204922805578</v>
+        <v>1222.134484249283</v>
       </c>
       <c r="N45" t="n">
-        <v>1690.648611345913</v>
+        <v>1696.578172789618</v>
       </c>
       <c r="O45" t="n">
-        <v>2102.45210106345</v>
+        <v>2108.381662507156</v>
       </c>
       <c r="P45" t="n">
-        <v>2413.62764055546</v>
+        <v>2419.557201999165</v>
       </c>
       <c r="Q45" t="n">
         <v>2571.721051549824</v>
@@ -7780,67 +7780,67 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>767.438791865993</v>
+        <v>767.4387918659939</v>
       </c>
       <c r="C46" t="n">
-        <v>645.8152897204122</v>
+        <v>645.8152897204131</v>
       </c>
       <c r="D46" t="n">
-        <v>543.0113310904027</v>
+        <v>543.0113310904035</v>
       </c>
       <c r="E46" t="n">
-        <v>442.4109182903357</v>
+        <v>442.4109182903364</v>
       </c>
       <c r="F46" t="n">
-        <v>342.8336515747515</v>
+        <v>342.8336515747522</v>
       </c>
       <c r="G46" t="n">
-        <v>222.446523643097</v>
+        <v>222.4465236430976</v>
       </c>
       <c r="H46" t="n">
-        <v>123.5689385273886</v>
+        <v>123.5689385273891</v>
       </c>
       <c r="I46" t="n">
-        <v>73.64699967880368</v>
+        <v>73.64699967880364</v>
       </c>
       <c r="J46" t="n">
-        <v>165.3506038301893</v>
+        <v>165.3506038301896</v>
       </c>
       <c r="K46" t="n">
-        <v>416.0537328680184</v>
+        <v>416.0537328680187</v>
       </c>
       <c r="L46" t="n">
-        <v>779.4258992424072</v>
+        <v>779.4258992424075</v>
       </c>
       <c r="M46" t="n">
-        <v>1170.41929682298</v>
+        <v>1170.419296822981</v>
       </c>
       <c r="N46" t="n">
-        <v>1558.652964247097</v>
+        <v>1558.652964247098</v>
       </c>
       <c r="O46" t="n">
-        <v>1904.773186269516</v>
+        <v>1904.773186269517</v>
       </c>
       <c r="P46" t="n">
         <v>2184.110769625524</v>
       </c>
       <c r="Q46" t="n">
-        <v>2308.340724923499</v>
+        <v>2308.3407249235</v>
       </c>
       <c r="R46" t="n">
         <v>2265.959094366006</v>
       </c>
       <c r="S46" t="n">
-        <v>2121.638659211184</v>
+        <v>2121.638659211185</v>
       </c>
       <c r="T46" t="n">
-        <v>1947.197662002229</v>
+        <v>1947.19766200223</v>
       </c>
       <c r="U46" t="n">
-        <v>1705.407641068997</v>
+        <v>1705.407641068998</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.035833645436</v>
+        <v>1498.035833645437</v>
       </c>
       <c r="W46" t="n">
         <v>1255.931344390802</v>
@@ -7849,7 +7849,7 @@
         <v>1075.254474275111</v>
       </c>
       <c r="Y46" t="n">
-        <v>901.7745759139066</v>
+        <v>901.7745759139076</v>
       </c>
     </row>
   </sheetData>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-12</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9647,19 +9647,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>40.97085317170797</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.9579993893913</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>118.1268219731103</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>183.8432418460923</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10121,19 +10121,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>280.6100162654964</v>
       </c>
       <c r="P29" t="n">
-        <v>270.8289149725198</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>214.8935963925136</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10358,16 +10358,16 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>270.8289149725203</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10583,16 +10583,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>20.92922126594567</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10604,10 +10604,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>110.2615987920533</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,16 +10820,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>20.92922126594567</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10841,10 +10841,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>110.2615987920555</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11066,13 +11066,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>345.0746338371121</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>175.9780186650364</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>279.3582139641259</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>110.2615987920541</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23261,16 +23261,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>78.37663611112012</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>16.70256188182786</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>364.0754889722012</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>302.4014147429102</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>322.8915467039662</v>
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>133.0782797117126</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>35.78961814460649</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>307.8434876461801</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>360.0364917672086</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6997711423199</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>322.8915467039662</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23738,13 +23738,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>70.03743092763152</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>343.3403599215729</v>
+        <v>343.3403599215733</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>70.03743092762859</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>186.4131487575122</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>226.964642091692</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,16 +24017,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>41.4607965829919</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>136.3140335656933</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>183.4199543172309</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>52.18300638328355</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25631,10 +25631,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>307.8434876461802</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>57.61846128806787</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25679,13 +25679,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>157.0491626163216</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>204.1550833678591</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>4.257702950064121</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>335.0908160977589</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>30.37113283648873</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25916,13 +25916,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>157.0491626163216</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>204.1550833678592</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>4.257702950064186</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>660034.3228540641</v>
+        <v>660034.3228540642</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>660034.3228540639</v>
+        <v>660034.3228540643</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>679675.4664959812</v>
+        <v>679675.466495981</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>679675.4664959812</v>
+        <v>679675.4664959811</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>721073.797561231</v>
+        <v>721073.7975612311</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>730504.3568160092</v>
+        <v>730504.356816009</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>730504.3568160092</v>
+        <v>730504.356816009</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>693904.6287013207</v>
+        <v>693904.6287013205</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>693904.6287013207</v>
+        <v>693904.6287013205</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>737348.7048453348</v>
+        <v>737348.7048453346</v>
       </c>
       <c r="C2" t="n">
-        <v>737349.7629178473</v>
+        <v>737349.7629178475</v>
       </c>
       <c r="D2" t="n">
-        <v>737358.7909684218</v>
+        <v>737358.7909684217</v>
       </c>
       <c r="E2" t="n">
         <v>688526.7029088006</v>
       </c>
       <c r="F2" t="n">
-        <v>688526.7029088007</v>
+        <v>688526.7029088004</v>
       </c>
       <c r="G2" t="n">
-        <v>709323.2079414182</v>
+        <v>709323.2079414185</v>
       </c>
       <c r="H2" t="n">
-        <v>709323.2079414184</v>
+        <v>709323.2079414173</v>
       </c>
       <c r="I2" t="n">
+        <v>738937.5928778547</v>
+      </c>
+      <c r="J2" t="n">
+        <v>738937.5928778554</v>
+      </c>
+      <c r="K2" t="n">
         <v>738937.5928778553</v>
       </c>
-      <c r="J2" t="n">
-        <v>738937.5928778555</v>
-      </c>
-      <c r="K2" t="n">
-        <v>738937.5928778556</v>
-      </c>
       <c r="L2" t="n">
-        <v>738937.5928778556</v>
+        <v>738937.5928778554</v>
       </c>
       <c r="M2" t="n">
+        <v>738937.5928778551</v>
+      </c>
+      <c r="N2" t="n">
         <v>738937.5928778553</v>
       </c>
-      <c r="N2" t="n">
-        <v>738937.5928778552</v>
-      </c>
       <c r="O2" t="n">
-        <v>712755.8988562059</v>
+        <v>712755.8988562042</v>
       </c>
       <c r="P2" t="n">
-        <v>712755.8988562059</v>
+        <v>712755.8988562052</v>
       </c>
     </row>
     <row r="3">
@@ -26372,31 +26372,31 @@
         <v>26846.35036165576</v>
       </c>
       <c r="E3" t="n">
-        <v>1135047.257286805</v>
+        <v>1135047.257286806</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>16588.10324050263</v>
+        <v>16588.10324050236</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>28325.56058555202</v>
+        <v>28325.56058555226</v>
       </c>
       <c r="J3" t="n">
-        <v>40455.04825555926</v>
+        <v>40455.04825555912</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>16588.10324050264</v>
+        <v>16588.10324050238</v>
       </c>
       <c r="M3" t="n">
-        <v>205111.7681176019</v>
+        <v>205111.7681176021</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>421594.991239873</v>
       </c>
       <c r="E4" t="n">
+        <v>57464.10084728873</v>
+      </c>
+      <c r="F4" t="n">
         <v>57464.10084728874</v>
       </c>
-      <c r="F4" t="n">
-        <v>57464.10084728875</v>
-      </c>
       <c r="G4" t="n">
-        <v>70548.48571001099</v>
+        <v>70548.48571001073</v>
       </c>
       <c r="H4" t="n">
-        <v>70548.48571001098</v>
+        <v>70548.48571001086</v>
       </c>
       <c r="I4" t="n">
-        <v>84028.03490791528</v>
+        <v>84028.03490791522</v>
       </c>
       <c r="J4" t="n">
         <v>80409.57389717663</v>
       </c>
       <c r="K4" t="n">
-        <v>80409.57389717666</v>
+        <v>80409.5738971766</v>
       </c>
       <c r="L4" t="n">
-        <v>80409.57389717666</v>
+        <v>80409.57389717664</v>
       </c>
       <c r="M4" t="n">
         <v>84980.89659223167</v>
       </c>
       <c r="N4" t="n">
-        <v>84980.89659223155</v>
+        <v>84980.89659223164</v>
       </c>
       <c r="O4" t="n">
-        <v>68492.47909994257</v>
+        <v>68492.47909994244</v>
       </c>
       <c r="P4" t="n">
-        <v>68492.47909994249</v>
+        <v>68492.4790999424</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>34391.06348367693</v>
       </c>
       <c r="E5" t="n">
-        <v>78404.18872566652</v>
+        <v>78404.18872566657</v>
       </c>
       <c r="F5" t="n">
-        <v>78404.18872566649</v>
+        <v>78404.18872566657</v>
       </c>
       <c r="G5" t="n">
         <v>80147.3702898238</v>
@@ -26488,16 +26488,16 @@
         <v>80147.3702898238</v>
       </c>
       <c r="I5" t="n">
-        <v>86623.70756142537</v>
+        <v>86623.70756142541</v>
       </c>
       <c r="J5" t="n">
-        <v>89428.49081068153</v>
+        <v>89428.49081068151</v>
       </c>
       <c r="K5" t="n">
         <v>89428.49081068153</v>
       </c>
       <c r="L5" t="n">
-        <v>89428.49081068154</v>
+        <v>89428.49081068151</v>
       </c>
       <c r="M5" t="n">
         <v>85897.41783885789</v>
@@ -26506,10 +26506,10 @@
         <v>85897.41783885789</v>
       </c>
       <c r="O5" t="n">
-        <v>83702.84493993268</v>
+        <v>83702.84493993265</v>
       </c>
       <c r="P5" t="n">
-        <v>83702.84493993269</v>
+        <v>83702.84493993266</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>272822.5954026589</v>
+        <v>272818.1818247907</v>
       </c>
       <c r="C6" t="n">
-        <v>270388.4965925489</v>
+        <v>270384.0859537714</v>
       </c>
       <c r="D6" t="n">
-        <v>254526.3858832161</v>
+        <v>254522.0003223564</v>
       </c>
       <c r="E6" t="n">
-        <v>-582388.8439509599</v>
+        <v>-582528.8742008745</v>
       </c>
       <c r="F6" t="n">
-        <v>552658.4133358456</v>
+        <v>552518.3830859311</v>
       </c>
       <c r="G6" t="n">
-        <v>542039.2487010807</v>
+        <v>541956.9865207026</v>
       </c>
       <c r="H6" t="n">
-        <v>558627.3519415837</v>
+        <v>558545.0897612037</v>
       </c>
       <c r="I6" t="n">
-        <v>539960.2898229626</v>
+        <v>539960.2898229619</v>
       </c>
       <c r="J6" t="n">
         <v>528644.4799144381</v>
       </c>
       <c r="K6" t="n">
-        <v>569099.5281699975</v>
+        <v>569099.5281699972</v>
       </c>
       <c r="L6" t="n">
-        <v>552511.4249294947</v>
+        <v>552511.4249294949</v>
       </c>
       <c r="M6" t="n">
-        <v>362947.5103291639</v>
+        <v>362947.5103291634</v>
       </c>
       <c r="N6" t="n">
-        <v>568059.278446766</v>
+        <v>568059.2784467657</v>
       </c>
       <c r="O6" t="n">
-        <v>560560.5748163306</v>
+        <v>560487.8478884911</v>
       </c>
       <c r="P6" t="n">
-        <v>560560.5748163307</v>
+        <v>560487.8478884922</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="F2" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="G2" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="H2" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="I2" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="J2" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450288</v>
       </c>
       <c r="K2" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450285</v>
       </c>
       <c r="L2" t="n">
         <v>46.83955397450288</v>
       </c>
       <c r="M2" t="n">
-        <v>72.94397889837776</v>
+        <v>72.94397889837774</v>
       </c>
       <c r="N2" t="n">
-        <v>72.94397889837747</v>
+        <v>72.94397889837768</v>
       </c>
       <c r="O2" t="n">
-        <v>46.83955397450288</v>
+        <v>46.83955397450277</v>
       </c>
       <c r="P2" t="n">
-        <v>46.83955397450285</v>
+        <v>46.83955397450283</v>
       </c>
     </row>
     <row r="3">
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>833.4385450925105</v>
+        <v>833.4385450925109</v>
       </c>
       <c r="F4" t="n">
-        <v>833.4385450925099</v>
+        <v>833.4385450925109</v>
       </c>
       <c r="G4" t="n">
-        <v>833.4385450925105</v>
+        <v>833.4385450925109</v>
       </c>
       <c r="H4" t="n">
-        <v>833.4385450925105</v>
+        <v>833.4385450925109</v>
       </c>
       <c r="I4" t="n">
-        <v>939.9572502175364</v>
+        <v>939.9572502175378</v>
       </c>
       <c r="J4" t="n">
         <v>1014.759303069731</v>
@@ -26820,16 +26820,16 @@
         <v>1014.759303069731</v>
       </c>
       <c r="M4" t="n">
-        <v>920.5874959850454</v>
+        <v>920.5874959850455</v>
       </c>
       <c r="N4" t="n">
-        <v>920.587495985046</v>
+        <v>920.5874959850455</v>
       </c>
       <c r="O4" t="n">
-        <v>920.587495985046</v>
+        <v>920.5874959850455</v>
       </c>
       <c r="P4" t="n">
-        <v>920.587495985046</v>
+        <v>920.5874959850455</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>20.7351290506283</v>
+        <v>20.73512905062795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,19 +26929,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.1044249238746</v>
+        <v>26.10442492387492</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>20.7351290506283</v>
+        <v>20.73512905062798</v>
       </c>
       <c r="M2" t="n">
-        <v>26.10442492387489</v>
+        <v>26.10442492387486</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>31.347397825883</v>
       </c>
       <c r="E3" t="n">
-        <v>1056.417763178095</v>
+        <v>1056.417763178096</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>833.4385450925105</v>
+        <v>833.4385450925109</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>106.5187051250259</v>
+        <v>106.5187051250268</v>
       </c>
       <c r="J4" t="n">
-        <v>74.80205285219449</v>
+        <v>74.80205285219301</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>739.2667380078248</v>
+        <v>739.2667380078257</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>20.7351290506283</v>
+        <v>20.73512905062795</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>26.1044249238746</v>
+        <v>26.10442492387492</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>833.4385450925105</v>
+        <v>833.4385450925109</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="C11" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="D11" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="E11" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="F11" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="G11" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="H11" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="I11" t="n">
-        <v>41.31929472096832</v>
+        <v>41.31929472096823</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="T11" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="U11" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="V11" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="W11" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="X11" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="C13" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="D13" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="E13" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="F13" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="G13" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="H13" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="I13" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="J13" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="K13" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="L13" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="M13" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="N13" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="O13" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="P13" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="R13" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="S13" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="T13" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="U13" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="V13" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="W13" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="X13" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="C14" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="D14" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="E14" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="F14" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="G14" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="H14" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="I14" t="n">
-        <v>41.31929472096832</v>
+        <v>41.31929472096823</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="T14" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="U14" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="V14" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="W14" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="X14" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="C16" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="D16" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="E16" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="F16" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="G16" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="H16" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="I16" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="J16" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="K16" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="L16" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="M16" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="N16" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="O16" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="P16" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.83955397450363</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="R16" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="S16" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="T16" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="U16" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="V16" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="W16" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="X16" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.83955397450286</v>
+        <v>46.83955397450283</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="C17" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="D17" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="E17" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="F17" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="G17" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="H17" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="I17" t="n">
-        <v>41.31929472096832</v>
+        <v>41.31929472096823</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="T17" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="U17" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="V17" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="W17" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="X17" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="Y17" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="C19" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="D19" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="E19" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="F19" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="G19" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="H19" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="I19" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>36.21825323255746</v>
+        <v>36.21825323256263</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="S19" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="T19" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="U19" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="V19" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="W19" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="X19" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="Y19" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="C20" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="D20" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="E20" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="F20" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="G20" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="H20" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="I20" t="n">
         <v>41.31929472096832</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="T20" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="U20" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="V20" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="W20" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="X20" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="Y20" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="C22" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="D22" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="E22" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="F22" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="G22" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="H22" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="I22" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -28995,37 +28995,37 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>36.21825323255734</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>36.21825323256357</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="S22" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="T22" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="U22" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="V22" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="W22" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="X22" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="Y22" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="C23" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="D23" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="E23" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="F23" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="G23" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="H23" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="I23" t="n">
         <v>41.31929472096832</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="T23" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="U23" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="V23" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="W23" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="X23" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="Y23" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
     </row>
     <row r="24">
@@ -29193,40 +29193,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="C25" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="D25" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="E25" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="F25" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="G25" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="H25" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="I25" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>36.21825323255774</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>36.21825323256354</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="S25" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="T25" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="U25" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="V25" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="W25" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="X25" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
       <c r="Y25" t="n">
-        <v>67.57468302513115</v>
+        <v>67.57468302513078</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450288</v>
       </c>
       <c r="C26" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450288</v>
       </c>
       <c r="D26" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450288</v>
       </c>
       <c r="E26" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450288</v>
       </c>
       <c r="F26" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450288</v>
       </c>
       <c r="G26" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450288</v>
       </c>
       <c r="H26" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450288</v>
       </c>
       <c r="I26" t="n">
         <v>41.31929472096832</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450288</v>
       </c>
       <c r="T26" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450288</v>
       </c>
       <c r="U26" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450288</v>
       </c>
       <c r="V26" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450288</v>
       </c>
       <c r="W26" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450288</v>
       </c>
       <c r="X26" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450288</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450288</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450288</v>
       </c>
       <c r="C28" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450288</v>
       </c>
       <c r="D28" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450288</v>
       </c>
       <c r="E28" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450288</v>
       </c>
       <c r="F28" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450288</v>
       </c>
       <c r="G28" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450288</v>
       </c>
       <c r="H28" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450288</v>
       </c>
       <c r="I28" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450288</v>
       </c>
       <c r="J28" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450288</v>
       </c>
       <c r="K28" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450288</v>
       </c>
       <c r="L28" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450288</v>
       </c>
       <c r="M28" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450288</v>
       </c>
       <c r="N28" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450288</v>
       </c>
       <c r="O28" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450288</v>
       </c>
       <c r="P28" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450288</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450288</v>
       </c>
       <c r="R28" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450288</v>
       </c>
       <c r="S28" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450288</v>
       </c>
       <c r="T28" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450288</v>
       </c>
       <c r="U28" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450288</v>
       </c>
       <c r="V28" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450288</v>
       </c>
       <c r="W28" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450288</v>
       </c>
       <c r="X28" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450288</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450288</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450285</v>
       </c>
       <c r="C29" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450285</v>
       </c>
       <c r="D29" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450285</v>
       </c>
       <c r="E29" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450285</v>
       </c>
       <c r="F29" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450285</v>
       </c>
       <c r="G29" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450285</v>
       </c>
       <c r="H29" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450285</v>
       </c>
       <c r="I29" t="n">
         <v>41.31929472096832</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450285</v>
       </c>
       <c r="T29" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450285</v>
       </c>
       <c r="U29" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450285</v>
       </c>
       <c r="V29" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450285</v>
       </c>
       <c r="W29" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450285</v>
       </c>
       <c r="X29" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450285</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450285</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450285</v>
       </c>
       <c r="C31" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450285</v>
       </c>
       <c r="D31" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450285</v>
       </c>
       <c r="E31" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450285</v>
       </c>
       <c r="F31" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450285</v>
       </c>
       <c r="G31" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450285</v>
       </c>
       <c r="H31" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450285</v>
       </c>
       <c r="I31" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450285</v>
       </c>
       <c r="J31" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450285</v>
       </c>
       <c r="K31" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450285</v>
       </c>
       <c r="L31" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450285</v>
       </c>
       <c r="M31" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450285</v>
       </c>
       <c r="N31" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450285</v>
       </c>
       <c r="O31" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450285</v>
       </c>
       <c r="P31" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450285</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450285</v>
       </c>
       <c r="R31" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450285</v>
       </c>
       <c r="S31" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450285</v>
       </c>
       <c r="T31" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450285</v>
       </c>
       <c r="U31" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450285</v>
       </c>
       <c r="V31" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450285</v>
       </c>
       <c r="W31" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450285</v>
       </c>
       <c r="X31" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450285</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.83955397450287</v>
+        <v>46.83955397450285</v>
       </c>
     </row>
     <row r="32">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>72.94397889837776</v>
+        <v>72.94397889837774</v>
       </c>
       <c r="C35" t="n">
-        <v>72.94397889837776</v>
+        <v>72.94397889837774</v>
       </c>
       <c r="D35" t="n">
-        <v>72.94397889837776</v>
+        <v>72.94397889837774</v>
       </c>
       <c r="E35" t="n">
-        <v>72.94397889837776</v>
+        <v>72.94397889837774</v>
       </c>
       <c r="F35" t="n">
-        <v>72.94397889837776</v>
+        <v>72.94397889837774</v>
       </c>
       <c r="G35" t="n">
-        <v>72.94397889837776</v>
+        <v>72.94397889837774</v>
       </c>
       <c r="H35" t="n">
-        <v>72.94397889837776</v>
+        <v>72.94397889837774</v>
       </c>
       <c r="I35" t="n">
         <v>41.31929472096832</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>72.94397889837776</v>
+        <v>72.94397889837774</v>
       </c>
       <c r="T35" t="n">
-        <v>72.94397889837776</v>
+        <v>72.94397889837774</v>
       </c>
       <c r="U35" t="n">
-        <v>72.94397889837776</v>
+        <v>72.94397889837774</v>
       </c>
       <c r="V35" t="n">
-        <v>72.94397889837776</v>
+        <v>72.94397889837774</v>
       </c>
       <c r="W35" t="n">
-        <v>72.94397889837776</v>
+        <v>72.94397889837774</v>
       </c>
       <c r="X35" t="n">
-        <v>72.94397889837776</v>
+        <v>72.94397889837774</v>
       </c>
       <c r="Y35" t="n">
-        <v>72.94397889837776</v>
+        <v>72.94397889837774</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>72.94397889837776</v>
+        <v>72.94397889837774</v>
       </c>
       <c r="C37" t="n">
-        <v>72.94397889837776</v>
+        <v>72.94397889837774</v>
       </c>
       <c r="D37" t="n">
-        <v>72.94397889837776</v>
+        <v>72.94397889837774</v>
       </c>
       <c r="E37" t="n">
-        <v>22.53275491966141</v>
+        <v>72.94397889837774</v>
       </c>
       <c r="F37" t="n">
-        <v>72.94397889837776</v>
+        <v>72.94397889837774</v>
       </c>
       <c r="G37" t="n">
-        <v>72.94397889837776</v>
+        <v>72.94397889837774</v>
       </c>
       <c r="H37" t="n">
-        <v>72.94397889837776</v>
+        <v>72.94397889837774</v>
       </c>
       <c r="I37" t="n">
-        <v>72.94397889837776</v>
+        <v>72.94397889837774</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>72.94397889837776</v>
+        <v>72.94397889837774</v>
       </c>
       <c r="S37" t="n">
-        <v>72.94397889837776</v>
+        <v>72.94397889837774</v>
       </c>
       <c r="T37" t="n">
-        <v>72.94397889837776</v>
+        <v>22.53275491966212</v>
       </c>
       <c r="U37" t="n">
-        <v>72.94397889837776</v>
+        <v>72.94397889837774</v>
       </c>
       <c r="V37" t="n">
-        <v>72.94397889837776</v>
+        <v>72.94397889837774</v>
       </c>
       <c r="W37" t="n">
-        <v>72.94397889837776</v>
+        <v>72.94397889837774</v>
       </c>
       <c r="X37" t="n">
-        <v>72.94397889837776</v>
+        <v>72.94397889837774</v>
       </c>
       <c r="Y37" t="n">
-        <v>72.94397889837776</v>
+        <v>72.94397889837774</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>72.94397889837747</v>
+        <v>72.94397889837768</v>
       </c>
       <c r="C38" t="n">
-        <v>72.94397889837747</v>
+        <v>72.94397889837768</v>
       </c>
       <c r="D38" t="n">
-        <v>72.94397889837747</v>
+        <v>72.94397889837768</v>
       </c>
       <c r="E38" t="n">
-        <v>72.94397889837747</v>
+        <v>72.94397889837768</v>
       </c>
       <c r="F38" t="n">
-        <v>72.94397889837747</v>
+        <v>72.94397889837768</v>
       </c>
       <c r="G38" t="n">
-        <v>72.94397889837747</v>
+        <v>72.94397889837768</v>
       </c>
       <c r="H38" t="n">
-        <v>72.94397889837747</v>
+        <v>72.94397889837768</v>
       </c>
       <c r="I38" t="n">
         <v>41.31929472096832</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>72.94397889837747</v>
+        <v>72.94397889837768</v>
       </c>
       <c r="T38" t="n">
-        <v>72.94397889837747</v>
+        <v>72.94397889837768</v>
       </c>
       <c r="U38" t="n">
-        <v>72.94397889837747</v>
+        <v>72.94397889837768</v>
       </c>
       <c r="V38" t="n">
-        <v>72.94397889837747</v>
+        <v>72.94397889837768</v>
       </c>
       <c r="W38" t="n">
-        <v>72.94397889837747</v>
+        <v>72.94397889837768</v>
       </c>
       <c r="X38" t="n">
-        <v>72.94397889837747</v>
+        <v>72.94397889837768</v>
       </c>
       <c r="Y38" t="n">
-        <v>72.94397889837747</v>
+        <v>72.94397889837768</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>72.94397889837747</v>
+        <v>72.94397889837768</v>
       </c>
       <c r="C40" t="n">
-        <v>72.94397889837747</v>
+        <v>72.94397889837768</v>
       </c>
       <c r="D40" t="n">
-        <v>72.94397889837747</v>
+        <v>72.94397889837768</v>
       </c>
       <c r="E40" t="n">
-        <v>72.94397889837747</v>
+        <v>72.94397889837768</v>
       </c>
       <c r="F40" t="n">
-        <v>72.94397889837747</v>
+        <v>72.94397889837768</v>
       </c>
       <c r="G40" t="n">
-        <v>72.94397889837747</v>
+        <v>72.94397889837768</v>
       </c>
       <c r="H40" t="n">
-        <v>72.94397889837747</v>
+        <v>72.94397889837768</v>
       </c>
       <c r="I40" t="n">
-        <v>72.94397889837747</v>
+        <v>72.94397889837768</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>72.94397889837747</v>
+        <v>72.94397889837768</v>
       </c>
       <c r="S40" t="n">
-        <v>72.94397889837747</v>
+        <v>72.94397889837768</v>
       </c>
       <c r="T40" t="n">
-        <v>72.94397889837747</v>
+        <v>72.94397889837768</v>
       </c>
       <c r="U40" t="n">
-        <v>72.94397889837747</v>
+        <v>72.94397889837768</v>
       </c>
       <c r="V40" t="n">
-        <v>22.53275491966619</v>
+        <v>72.94397889837768</v>
       </c>
       <c r="W40" t="n">
-        <v>72.94397889837747</v>
+        <v>72.94397889837768</v>
       </c>
       <c r="X40" t="n">
-        <v>72.94397889837747</v>
+        <v>72.94397889837768</v>
       </c>
       <c r="Y40" t="n">
-        <v>72.94397889837747</v>
+        <v>22.53275491966275</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.83955397450288</v>
+        <v>46.83955397450277</v>
       </c>
       <c r="C41" t="n">
-        <v>46.83955397450288</v>
+        <v>46.83955397450277</v>
       </c>
       <c r="D41" t="n">
-        <v>46.83955397450288</v>
+        <v>46.83955397450277</v>
       </c>
       <c r="E41" t="n">
-        <v>46.83955397450288</v>
+        <v>46.83955397450277</v>
       </c>
       <c r="F41" t="n">
-        <v>46.83955397450288</v>
+        <v>46.83955397450277</v>
       </c>
       <c r="G41" t="n">
-        <v>46.83955397450288</v>
+        <v>46.83955397450277</v>
       </c>
       <c r="H41" t="n">
-        <v>46.83955397450288</v>
+        <v>46.83955397450277</v>
       </c>
       <c r="I41" t="n">
         <v>41.31929472096832</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.83955397450288</v>
+        <v>46.83955397450277</v>
       </c>
       <c r="T41" t="n">
-        <v>46.83955397450288</v>
+        <v>46.83955397450277</v>
       </c>
       <c r="U41" t="n">
-        <v>46.83955397450288</v>
+        <v>46.83955397450277</v>
       </c>
       <c r="V41" t="n">
-        <v>46.83955397450288</v>
+        <v>46.83955397450277</v>
       </c>
       <c r="W41" t="n">
-        <v>46.83955397450288</v>
+        <v>46.83955397450277</v>
       </c>
       <c r="X41" t="n">
-        <v>46.83955397450288</v>
+        <v>46.83955397450277</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.83955397450288</v>
+        <v>46.83955397450277</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.83955397450288</v>
+        <v>46.83955397450277</v>
       </c>
       <c r="C43" t="n">
-        <v>46.83955397450288</v>
+        <v>46.83955397450277</v>
       </c>
       <c r="D43" t="n">
-        <v>46.83955397450288</v>
+        <v>46.83955397450277</v>
       </c>
       <c r="E43" t="n">
-        <v>46.83955397450288</v>
+        <v>46.83955397450277</v>
       </c>
       <c r="F43" t="n">
-        <v>46.83955397450288</v>
+        <v>46.83955397450277</v>
       </c>
       <c r="G43" t="n">
-        <v>46.83955397450288</v>
+        <v>46.83955397450277</v>
       </c>
       <c r="H43" t="n">
-        <v>46.83955397450288</v>
+        <v>46.83955397450277</v>
       </c>
       <c r="I43" t="n">
-        <v>46.83955397450288</v>
+        <v>46.83955397450277</v>
       </c>
       <c r="J43" t="n">
-        <v>46.83955397450288</v>
+        <v>46.83955397450277</v>
       </c>
       <c r="K43" t="n">
-        <v>46.83955397450288</v>
+        <v>46.83955397450277</v>
       </c>
       <c r="L43" t="n">
-        <v>46.83955397450288</v>
+        <v>46.83955397450277</v>
       </c>
       <c r="M43" t="n">
-        <v>46.83955397450288</v>
+        <v>46.83955397450277</v>
       </c>
       <c r="N43" t="n">
-        <v>46.83955397450288</v>
+        <v>46.83955397450512</v>
       </c>
       <c r="O43" t="n">
-        <v>46.83955397450288</v>
+        <v>46.83955397450277</v>
       </c>
       <c r="P43" t="n">
-        <v>46.83955397450288</v>
+        <v>46.83955397450277</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.83955397450288</v>
+        <v>46.83955397450277</v>
       </c>
       <c r="R43" t="n">
-        <v>46.83955397450288</v>
+        <v>46.83955397450277</v>
       </c>
       <c r="S43" t="n">
-        <v>46.83955397450288</v>
+        <v>46.83955397450277</v>
       </c>
       <c r="T43" t="n">
-        <v>46.83955397450288</v>
+        <v>46.83955397450277</v>
       </c>
       <c r="U43" t="n">
-        <v>46.83955397450288</v>
+        <v>46.83955397450277</v>
       </c>
       <c r="V43" t="n">
-        <v>46.83955397450288</v>
+        <v>46.83955397450277</v>
       </c>
       <c r="W43" t="n">
-        <v>46.83955397450288</v>
+        <v>46.83955397450277</v>
       </c>
       <c r="X43" t="n">
-        <v>46.83955397450288</v>
+        <v>46.83955397450277</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.83955397450288</v>
+        <v>46.83955397450277</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.83955397450285</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="C44" t="n">
-        <v>46.83955397450285</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="D44" t="n">
-        <v>46.83955397450285</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="E44" t="n">
-        <v>46.83955397450285</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="F44" t="n">
-        <v>46.83955397450285</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="G44" t="n">
-        <v>46.83955397450285</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="H44" t="n">
-        <v>46.83955397450285</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="I44" t="n">
         <v>41.31929472096829</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.83955397450285</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="T44" t="n">
-        <v>46.83955397450285</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="U44" t="n">
-        <v>46.83955397450285</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="V44" t="n">
-        <v>46.83955397450285</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="W44" t="n">
-        <v>46.83955397450285</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="X44" t="n">
-        <v>46.83955397450285</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.83955397450285</v>
+        <v>46.83955397450283</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.83955397450285</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="C46" t="n">
-        <v>46.83955397450285</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="D46" t="n">
-        <v>46.83955397450285</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="E46" t="n">
-        <v>46.83955397450285</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="F46" t="n">
-        <v>46.83955397450285</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="G46" t="n">
-        <v>46.83955397450285</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="H46" t="n">
-        <v>46.83955397450285</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="I46" t="n">
-        <v>46.83955397450285</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="J46" t="n">
-        <v>46.83955397450285</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="K46" t="n">
-        <v>46.83955397450285</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="L46" t="n">
-        <v>46.83955397450285</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="M46" t="n">
-        <v>46.83955397450285</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="N46" t="n">
-        <v>46.83955397450285</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="O46" t="n">
-        <v>46.83955397450285</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="P46" t="n">
-        <v>46.83955397450285</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.83955397450285</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="R46" t="n">
-        <v>46.83955397450285</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="S46" t="n">
-        <v>46.83955397450285</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="T46" t="n">
-        <v>46.83955397450285</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="U46" t="n">
-        <v>46.83955397450285</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="V46" t="n">
-        <v>46.83955397450285</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="W46" t="n">
-        <v>46.83955397450285</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="X46" t="n">
-        <v>46.83955397450285</v>
+        <v>46.83955397450283</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.83955397450285</v>
+        <v>46.83955397450283</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.387694568431034</v>
+        <v>4.387694568431035</v>
       </c>
       <c r="H11" t="n">
-        <v>44.93547699894434</v>
+        <v>44.93547699894436</v>
       </c>
       <c r="I11" t="n">
-        <v>169.1565948494376</v>
+        <v>169.1565948494377</v>
       </c>
       <c r="J11" t="n">
-        <v>372.4000918773738</v>
+        <v>372.4000918773739</v>
       </c>
       <c r="K11" t="n">
-        <v>558.1312029590596</v>
+        <v>558.1312029590598</v>
       </c>
       <c r="L11" t="n">
-        <v>692.4111106076809</v>
+        <v>692.4111106076813</v>
       </c>
       <c r="M11" t="n">
-        <v>770.4407738890163</v>
+        <v>770.4407738890167</v>
       </c>
       <c r="N11" t="n">
-        <v>782.9073110815712</v>
+        <v>782.9073110815714</v>
       </c>
       <c r="O11" t="n">
-        <v>739.2771732167349</v>
+        <v>739.2771732167353</v>
       </c>
       <c r="P11" t="n">
-        <v>630.9559635585937</v>
+        <v>630.9559635585939</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.8216518266572</v>
+        <v>473.8216518266573</v>
       </c>
       <c r="R11" t="n">
-        <v>275.6185189342062</v>
+        <v>275.6185189342063</v>
       </c>
       <c r="S11" t="n">
-        <v>99.98458997812229</v>
+        <v>99.98458997812233</v>
       </c>
       <c r="T11" t="n">
-        <v>19.20713297330686</v>
+        <v>19.20713297330687</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3510155654744826</v>
+        <v>0.3510155654744828</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.347623560835531</v>
+        <v>2.347623560835532</v>
       </c>
       <c r="H12" t="n">
-        <v>22.67310123228</v>
+        <v>22.67310123228001</v>
       </c>
       <c r="I12" t="n">
-        <v>80.82826733578474</v>
+        <v>80.82826733578477</v>
       </c>
       <c r="J12" t="n">
-        <v>221.7989435261324</v>
+        <v>221.7989435261325</v>
       </c>
       <c r="K12" t="n">
-        <v>379.0897221021129</v>
+        <v>379.0897221021131</v>
       </c>
       <c r="L12" t="n">
-        <v>503.8225466390949</v>
+        <v>509.7329139436974</v>
       </c>
       <c r="M12" t="n">
-        <v>594.8342680239851</v>
+        <v>588.8448120202409</v>
       </c>
       <c r="N12" t="n">
-        <v>610.5777611139744</v>
+        <v>610.5777611139746</v>
       </c>
       <c r="O12" t="n">
-        <v>558.5593653712502</v>
+        <v>558.5593653712505</v>
       </c>
       <c r="P12" t="n">
-        <v>448.2931341739358</v>
+        <v>448.293134173936</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.6720882217426</v>
+        <v>299.6720882217427</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>145.7585926631044</v>
       </c>
       <c r="S12" t="n">
-        <v>43.60607798306345</v>
+        <v>43.60607798306347</v>
       </c>
       <c r="T12" t="n">
-        <v>9.462570405297598</v>
+        <v>9.462570405297601</v>
       </c>
       <c r="U12" t="n">
         <v>0.1544489184760219</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.968168731617938</v>
+        <v>1.968168731617939</v>
       </c>
       <c r="H13" t="n">
         <v>17.49880926838496</v>
       </c>
       <c r="I13" t="n">
-        <v>59.18820149265584</v>
+        <v>59.18820149265586</v>
       </c>
       <c r="J13" t="n">
-        <v>139.1495293253882</v>
+        <v>139.1495293253883</v>
       </c>
       <c r="K13" t="n">
-        <v>228.665421727975</v>
+        <v>228.6654217279751</v>
       </c>
       <c r="L13" t="n">
-        <v>292.6130130625434</v>
+        <v>292.6130130625435</v>
       </c>
       <c r="M13" t="n">
-        <v>308.5193949026192</v>
+        <v>308.5193949026193</v>
       </c>
       <c r="N13" t="n">
-        <v>301.1834932665889</v>
+        <v>301.183493266589</v>
       </c>
       <c r="O13" t="n">
-        <v>278.1917039926884</v>
+        <v>278.1917039926885</v>
       </c>
       <c r="P13" t="n">
-        <v>238.0410618676822</v>
+        <v>238.0410618676823</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.8072926084803</v>
+        <v>164.8072926084804</v>
       </c>
       <c r="R13" t="n">
-        <v>88.49602315074837</v>
+        <v>88.49602315074841</v>
       </c>
       <c r="S13" t="n">
-        <v>34.29981325919624</v>
+        <v>34.29981325919626</v>
       </c>
       <c r="T13" t="n">
-        <v>8.409448216913008</v>
+        <v>8.409448216913011</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1073546580882513</v>
+        <v>0.1073546580882514</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.387694568431034</v>
+        <v>4.387694568431035</v>
       </c>
       <c r="H14" t="n">
-        <v>44.93547699894434</v>
+        <v>44.93547699894436</v>
       </c>
       <c r="I14" t="n">
-        <v>169.1565948494376</v>
+        <v>169.1565948494377</v>
       </c>
       <c r="J14" t="n">
-        <v>372.4000918773738</v>
+        <v>372.4000918773739</v>
       </c>
       <c r="K14" t="n">
-        <v>558.1312029590596</v>
+        <v>558.1312029590598</v>
       </c>
       <c r="L14" t="n">
-        <v>692.4111106076809</v>
+        <v>692.4111106076813</v>
       </c>
       <c r="M14" t="n">
-        <v>770.4407738890163</v>
+        <v>770.4407738890167</v>
       </c>
       <c r="N14" t="n">
-        <v>782.9073110815712</v>
+        <v>782.9073110815714</v>
       </c>
       <c r="O14" t="n">
-        <v>739.2771732167349</v>
+        <v>739.2771732167353</v>
       </c>
       <c r="P14" t="n">
-        <v>630.9559635585937</v>
+        <v>630.9559635585939</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.8216518266572</v>
+        <v>473.8216518266573</v>
       </c>
       <c r="R14" t="n">
-        <v>275.6185189342062</v>
+        <v>275.6185189342063</v>
       </c>
       <c r="S14" t="n">
-        <v>99.98458997812229</v>
+        <v>99.98458997812233</v>
       </c>
       <c r="T14" t="n">
-        <v>19.20713297330686</v>
+        <v>19.20713297330687</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3510155654744826</v>
+        <v>0.3510155654744828</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.347623560835531</v>
+        <v>2.347623560835532</v>
       </c>
       <c r="H15" t="n">
-        <v>22.67310123228</v>
+        <v>22.67310123228001</v>
       </c>
       <c r="I15" t="n">
-        <v>80.82826733578474</v>
+        <v>80.82826733578477</v>
       </c>
       <c r="J15" t="n">
-        <v>221.7989435261324</v>
+        <v>221.7989435261325</v>
       </c>
       <c r="K15" t="n">
-        <v>379.0897221021129</v>
+        <v>379.0897221021131</v>
       </c>
       <c r="L15" t="n">
-        <v>509.7329139436973</v>
+        <v>509.7329139436974</v>
       </c>
       <c r="M15" t="n">
-        <v>588.8448120202427</v>
+        <v>594.8342680239854</v>
       </c>
       <c r="N15" t="n">
-        <v>610.5777611139744</v>
+        <v>610.5777611139746</v>
       </c>
       <c r="O15" t="n">
-        <v>558.5593653712502</v>
+        <v>558.5593653712505</v>
       </c>
       <c r="P15" t="n">
-        <v>448.2931341739358</v>
+        <v>442.3036781701916</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.6720882217426</v>
+        <v>299.6720882217427</v>
       </c>
       <c r="R15" t="n">
-        <v>145.7585926631043</v>
+        <v>145.7585926631044</v>
       </c>
       <c r="S15" t="n">
-        <v>43.60607798306345</v>
+        <v>43.60607798306347</v>
       </c>
       <c r="T15" t="n">
-        <v>9.462570405297598</v>
+        <v>9.462570405297601</v>
       </c>
       <c r="U15" t="n">
         <v>0.1544489184760219</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.968168731617938</v>
+        <v>1.968168731617939</v>
       </c>
       <c r="H16" t="n">
         <v>17.49880926838496</v>
       </c>
       <c r="I16" t="n">
-        <v>59.18820149265584</v>
+        <v>59.18820149265586</v>
       </c>
       <c r="J16" t="n">
-        <v>139.1495293253882</v>
+        <v>139.1495293253883</v>
       </c>
       <c r="K16" t="n">
-        <v>228.665421727975</v>
+        <v>228.6654217279751</v>
       </c>
       <c r="L16" t="n">
-        <v>292.6130130625434</v>
+        <v>292.6130130625435</v>
       </c>
       <c r="M16" t="n">
-        <v>308.5193949026192</v>
+        <v>308.5193949026193</v>
       </c>
       <c r="N16" t="n">
-        <v>301.1834932665889</v>
+        <v>301.183493266589</v>
       </c>
       <c r="O16" t="n">
-        <v>278.1917039926884</v>
+        <v>278.1917039926885</v>
       </c>
       <c r="P16" t="n">
-        <v>238.0410618676822</v>
+        <v>238.0410618676823</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.8072926084803</v>
+        <v>164.8072926084804</v>
       </c>
       <c r="R16" t="n">
-        <v>88.49602315074837</v>
+        <v>88.49602315074841</v>
       </c>
       <c r="S16" t="n">
-        <v>34.29981325919624</v>
+        <v>34.29981325919626</v>
       </c>
       <c r="T16" t="n">
-        <v>8.409448216913008</v>
+        <v>8.409448216913011</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1073546580882513</v>
+        <v>0.1073546580882514</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.387694568431034</v>
+        <v>4.387694568431035</v>
       </c>
       <c r="H17" t="n">
-        <v>44.93547699894434</v>
+        <v>44.93547699894436</v>
       </c>
       <c r="I17" t="n">
-        <v>169.1565948494376</v>
+        <v>169.1565948494377</v>
       </c>
       <c r="J17" t="n">
-        <v>372.4000918773738</v>
+        <v>372.4000918773739</v>
       </c>
       <c r="K17" t="n">
-        <v>558.1312029590596</v>
+        <v>558.1312029590598</v>
       </c>
       <c r="L17" t="n">
-        <v>692.4111106076809</v>
+        <v>692.4111106076813</v>
       </c>
       <c r="M17" t="n">
-        <v>770.4407738890163</v>
+        <v>770.4407738890167</v>
       </c>
       <c r="N17" t="n">
-        <v>782.9073110815712</v>
+        <v>782.9073110815714</v>
       </c>
       <c r="O17" t="n">
-        <v>739.2771732167349</v>
+        <v>739.2771732167353</v>
       </c>
       <c r="P17" t="n">
-        <v>630.9559635585937</v>
+        <v>630.9559635585939</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.8216518266572</v>
+        <v>473.8216518266573</v>
       </c>
       <c r="R17" t="n">
-        <v>275.6185189342062</v>
+        <v>275.6185189342063</v>
       </c>
       <c r="S17" t="n">
-        <v>99.98458997812229</v>
+        <v>99.98458997812233</v>
       </c>
       <c r="T17" t="n">
-        <v>19.20713297330686</v>
+        <v>19.20713297330687</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3510155654744826</v>
+        <v>0.3510155654744828</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.347623560835531</v>
+        <v>2.347623560835532</v>
       </c>
       <c r="H18" t="n">
-        <v>22.67310123228</v>
+        <v>22.67310123228001</v>
       </c>
       <c r="I18" t="n">
-        <v>80.82826733578474</v>
+        <v>80.82826733578477</v>
       </c>
       <c r="J18" t="n">
-        <v>221.7989435261324</v>
+        <v>221.7989435261325</v>
       </c>
       <c r="K18" t="n">
-        <v>379.0897221021129</v>
+        <v>379.0897221021131</v>
       </c>
       <c r="L18" t="n">
-        <v>503.7434579399547</v>
+        <v>509.7329139436974</v>
       </c>
       <c r="M18" t="n">
-        <v>594.8342680239851</v>
+        <v>594.8342680239854</v>
       </c>
       <c r="N18" t="n">
-        <v>610.5777611139744</v>
+        <v>610.5777611139746</v>
       </c>
       <c r="O18" t="n">
-        <v>558.5593653712502</v>
+        <v>558.5593653712505</v>
       </c>
       <c r="P18" t="n">
-        <v>448.2931341739358</v>
+        <v>442.3827668693322</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.6720882217426</v>
+        <v>299.6720882217427</v>
       </c>
       <c r="R18" t="n">
-        <v>145.7585926631043</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>43.60607798306345</v>
+        <v>43.60607798306347</v>
       </c>
       <c r="T18" t="n">
-        <v>9.462570405297598</v>
+        <v>9.462570405297601</v>
       </c>
       <c r="U18" t="n">
         <v>0.1544489184760219</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.968168731617938</v>
+        <v>1.968168731617939</v>
       </c>
       <c r="H19" t="n">
         <v>17.49880926838496</v>
       </c>
       <c r="I19" t="n">
-        <v>59.18820149265584</v>
+        <v>59.18820149265586</v>
       </c>
       <c r="J19" t="n">
-        <v>139.1495293253882</v>
+        <v>139.1495293253883</v>
       </c>
       <c r="K19" t="n">
-        <v>228.665421727975</v>
+        <v>228.6654217279751</v>
       </c>
       <c r="L19" t="n">
-        <v>292.6130130625434</v>
+        <v>292.6130130625435</v>
       </c>
       <c r="M19" t="n">
-        <v>308.5193949026192</v>
+        <v>308.5193949026193</v>
       </c>
       <c r="N19" t="n">
-        <v>301.1834932665889</v>
+        <v>301.183493266589</v>
       </c>
       <c r="O19" t="n">
-        <v>278.1917039926884</v>
+        <v>278.1917039926885</v>
       </c>
       <c r="P19" t="n">
-        <v>238.0410618676822</v>
+        <v>238.0410618676823</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.8072926084803</v>
+        <v>164.8072926084804</v>
       </c>
       <c r="R19" t="n">
-        <v>88.49602315074837</v>
+        <v>88.49602315074841</v>
       </c>
       <c r="S19" t="n">
-        <v>34.29981325919624</v>
+        <v>34.29981325919626</v>
       </c>
       <c r="T19" t="n">
-        <v>8.409448216913008</v>
+        <v>8.409448216913011</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1073546580882513</v>
+        <v>0.1073546580882514</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32564,16 +32564,16 @@
         <v>610.5777611139744</v>
       </c>
       <c r="O21" t="n">
-        <v>558.5593653712502</v>
+        <v>552.5699093675082</v>
       </c>
       <c r="P21" t="n">
         <v>448.2931341739358</v>
       </c>
       <c r="Q21" t="n">
-        <v>293.7617209171401</v>
+        <v>299.6720882217426</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>145.7585926631043</v>
       </c>
       <c r="S21" t="n">
         <v>43.60607798306345</v>
@@ -32786,7 +32786,7 @@
         <v>80.82826733578474</v>
       </c>
       <c r="J24" t="n">
-        <v>215.8885762215303</v>
+        <v>215.80948752239</v>
       </c>
       <c r="K24" t="n">
         <v>379.0897221021129</v>
@@ -32810,7 +32810,7 @@
         <v>299.6720882217426</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>145.7585926631043</v>
       </c>
       <c r="S24" t="n">
         <v>43.60607798306345</v>
@@ -33032,7 +33032,7 @@
         <v>509.7329139436973</v>
       </c>
       <c r="M27" t="n">
-        <v>594.8342680239851</v>
+        <v>588.8448120202427</v>
       </c>
       <c r="N27" t="n">
         <v>610.5777611139744</v>
@@ -33044,10 +33044,10 @@
         <v>448.2931341739358</v>
       </c>
       <c r="Q27" t="n">
-        <v>293.7617209171406</v>
+        <v>299.6720882217426</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>145.7585926631043</v>
       </c>
       <c r="S27" t="n">
         <v>43.60607798306345</v>
@@ -33269,7 +33269,7 @@
         <v>509.7329139436973</v>
       </c>
       <c r="M30" t="n">
-        <v>594.8342680239851</v>
+        <v>588.8448120202427</v>
       </c>
       <c r="N30" t="n">
         <v>610.5777611139744</v>
@@ -33281,10 +33281,10 @@
         <v>448.2931341739358</v>
       </c>
       <c r="Q30" t="n">
-        <v>293.7617209171401</v>
+        <v>299.6720882217426</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>145.7585926631043</v>
       </c>
       <c r="S30" t="n">
         <v>43.60607798306345</v>
@@ -33497,7 +33497,7 @@
         <v>80.82826733578474</v>
       </c>
       <c r="J33" t="n">
-        <v>215.8094875223899</v>
+        <v>221.7989435261324</v>
       </c>
       <c r="K33" t="n">
         <v>379.0897221021129</v>
@@ -33515,7 +33515,7 @@
         <v>558.5593653712502</v>
       </c>
       <c r="P33" t="n">
-        <v>448.2931341739358</v>
+        <v>442.3036781701939</v>
       </c>
       <c r="Q33" t="n">
         <v>299.6720882217426</v>
@@ -33749,16 +33749,16 @@
         <v>610.5777611139744</v>
       </c>
       <c r="O36" t="n">
-        <v>558.5593653712502</v>
+        <v>552.569909367508</v>
       </c>
       <c r="P36" t="n">
         <v>448.2931341739358</v>
       </c>
       <c r="Q36" t="n">
-        <v>293.7617209171406</v>
+        <v>299.6720882217426</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>145.7585926631043</v>
       </c>
       <c r="S36" t="n">
         <v>43.60607798306345</v>
@@ -33983,7 +33983,7 @@
         <v>594.8342680239851</v>
       </c>
       <c r="N39" t="n">
-        <v>610.5777611139744</v>
+        <v>604.5883051102321</v>
       </c>
       <c r="O39" t="n">
         <v>558.5593653712502</v>
@@ -33992,10 +33992,10 @@
         <v>448.2931341739358</v>
       </c>
       <c r="Q39" t="n">
-        <v>293.7617209171406</v>
+        <v>299.6720882217426</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>145.7585926631043</v>
       </c>
       <c r="S39" t="n">
         <v>43.60607798306345</v>
@@ -34208,7 +34208,7 @@
         <v>80.82826733578474</v>
       </c>
       <c r="J42" t="n">
-        <v>221.7989435261324</v>
+        <v>215.8094875223901</v>
       </c>
       <c r="K42" t="n">
         <v>379.0897221021129</v>
@@ -34229,10 +34229,10 @@
         <v>448.2931341739358</v>
       </c>
       <c r="Q42" t="n">
-        <v>293.7617209171406</v>
+        <v>299.6720882217426</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>145.7585926631043</v>
       </c>
       <c r="S42" t="n">
         <v>43.60607798306345</v>
@@ -34445,7 +34445,7 @@
         <v>80.82826733578476</v>
       </c>
       <c r="J45" t="n">
-        <v>215.8094875223894</v>
+        <v>221.7989435261324</v>
       </c>
       <c r="K45" t="n">
         <v>379.089722102113</v>
@@ -34466,7 +34466,7 @@
         <v>448.2931341739359</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.6720882217426</v>
+        <v>293.6826322179994</v>
       </c>
       <c r="R45" t="n">
         <v>145.7585926631044</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>191.3541873506875</v>
+        <v>191.3541873506877</v>
       </c>
       <c r="K11" t="n">
-        <v>338.041351914079</v>
+        <v>338.0413519140793</v>
       </c>
       <c r="L11" t="n">
-        <v>456.6446956376937</v>
+        <v>456.644695637694</v>
       </c>
       <c r="M11" t="n">
-        <v>540.0945406617436</v>
+        <v>540.094540661744</v>
       </c>
       <c r="N11" t="n">
-        <v>553.4942474849802</v>
+        <v>553.4942474849804</v>
       </c>
       <c r="O11" t="n">
-        <v>509.1789617950482</v>
+        <v>509.1789617950485</v>
       </c>
       <c r="P11" t="n">
-        <v>399.7229678033241</v>
+        <v>399.7229678033244</v>
       </c>
       <c r="Q11" t="n">
-        <v>251.5159619522077</v>
+        <v>251.5159619522078</v>
       </c>
       <c r="R11" t="n">
-        <v>60.03298112007406</v>
+        <v>60.03298112007417</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.96131685946568</v>
+        <v>94.96131685946577</v>
       </c>
       <c r="K12" t="n">
-        <v>241.248283127754</v>
+        <v>241.2482831277541</v>
       </c>
       <c r="L12" t="n">
-        <v>365.2681668592207</v>
+        <v>371.1785341638233</v>
       </c>
       <c r="M12" t="n">
-        <v>452.7002341019668</v>
+        <v>446.7107780982225</v>
       </c>
       <c r="N12" t="n">
-        <v>479.2360490306411</v>
+        <v>479.2360490306413</v>
       </c>
       <c r="O12" t="n">
-        <v>415.9631209268058</v>
+        <v>415.963120926806</v>
       </c>
       <c r="P12" t="n">
-        <v>314.3187267596055</v>
+        <v>314.3187267596057</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.6903141357211</v>
+        <v>159.6903141357212</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.07908869914044203</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.62990318321832</v>
+        <v>92.62990318321836</v>
       </c>
       <c r="K13" t="n">
-        <v>253.235483876595</v>
+        <v>253.2354838765951</v>
       </c>
       <c r="L13" t="n">
         <v>367.0425922973624</v>
       </c>
       <c r="M13" t="n">
-        <v>394.9428258389626</v>
+        <v>394.9428258389627</v>
       </c>
       <c r="N13" t="n">
-        <v>392.1552196203204</v>
+        <v>392.1552196203205</v>
       </c>
       <c r="O13" t="n">
-        <v>349.6163858812309</v>
+        <v>349.616385881231</v>
       </c>
       <c r="P13" t="n">
         <v>282.1591751070786</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>191.3541873506875</v>
+        <v>191.3541873506877</v>
       </c>
       <c r="K14" t="n">
-        <v>338.041351914079</v>
+        <v>338.0413519140793</v>
       </c>
       <c r="L14" t="n">
-        <v>456.6446956376937</v>
+        <v>456.644695637694</v>
       </c>
       <c r="M14" t="n">
-        <v>540.0945406617436</v>
+        <v>540.094540661744</v>
       </c>
       <c r="N14" t="n">
-        <v>553.4942474849802</v>
+        <v>553.494247484981</v>
       </c>
       <c r="O14" t="n">
-        <v>509.1789617950482</v>
+        <v>509.1789617950485</v>
       </c>
       <c r="P14" t="n">
-        <v>399.7229678033241</v>
+        <v>399.7229678033244</v>
       </c>
       <c r="Q14" t="n">
-        <v>251.5159619522077</v>
+        <v>251.5159619522078</v>
       </c>
       <c r="R14" t="n">
-        <v>60.03298112007406</v>
+        <v>60.03298112007417</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.96131685946568</v>
+        <v>94.96131685946577</v>
       </c>
       <c r="K15" t="n">
-        <v>241.248283127754</v>
+        <v>241.2482831277541</v>
       </c>
       <c r="L15" t="n">
-        <v>371.1785341638231</v>
+        <v>371.1785341638233</v>
       </c>
       <c r="M15" t="n">
-        <v>446.7107780982243</v>
+        <v>452.7002341019671</v>
       </c>
       <c r="N15" t="n">
-        <v>479.2360490306411</v>
+        <v>479.2360490306413</v>
       </c>
       <c r="O15" t="n">
-        <v>415.9631209268058</v>
+        <v>415.963120926806</v>
       </c>
       <c r="P15" t="n">
-        <v>314.3187267596055</v>
+        <v>308.3292707558613</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.6903141357211</v>
+        <v>159.6903141357212</v>
       </c>
       <c r="R15" t="n">
-        <v>0.07908869914038519</v>
+        <v>0.07908869914044203</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.62990318321832</v>
+        <v>92.62990318321836</v>
       </c>
       <c r="K16" t="n">
-        <v>253.235483876595</v>
+        <v>253.2354838765951</v>
       </c>
       <c r="L16" t="n">
         <v>367.0425922973624</v>
       </c>
       <c r="M16" t="n">
-        <v>394.9428258389626</v>
+        <v>394.9428258389627</v>
       </c>
       <c r="N16" t="n">
-        <v>392.1552196203204</v>
+        <v>392.1552196203205</v>
       </c>
       <c r="O16" t="n">
-        <v>349.6163858812309</v>
+        <v>349.616385881231</v>
       </c>
       <c r="P16" t="n">
         <v>282.1591751070786</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.4848033312895</v>
+        <v>125.4848033312888</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>191.3541873506875</v>
+        <v>191.3541873506877</v>
       </c>
       <c r="K17" t="n">
-        <v>338.041351914079</v>
+        <v>338.0413519140793</v>
       </c>
       <c r="L17" t="n">
-        <v>456.6446956376937</v>
+        <v>456.644695637694</v>
       </c>
       <c r="M17" t="n">
-        <v>540.0945406617436</v>
+        <v>540.094540661744</v>
       </c>
       <c r="N17" t="n">
-        <v>553.4942474849802</v>
+        <v>553.4942474849804</v>
       </c>
       <c r="O17" t="n">
-        <v>509.1789617950482</v>
+        <v>509.1789617950485</v>
       </c>
       <c r="P17" t="n">
-        <v>399.7229678033241</v>
+        <v>399.7229678033244</v>
       </c>
       <c r="Q17" t="n">
-        <v>251.5159619522077</v>
+        <v>251.5159619522078</v>
       </c>
       <c r="R17" t="n">
-        <v>60.03298112007406</v>
+        <v>60.03298112007417</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.96131685946568</v>
+        <v>94.96131685946577</v>
       </c>
       <c r="K18" t="n">
-        <v>241.248283127754</v>
+        <v>241.2482831277541</v>
       </c>
       <c r="L18" t="n">
-        <v>365.1890781600806</v>
+        <v>371.1785341638233</v>
       </c>
       <c r="M18" t="n">
-        <v>452.7002341019668</v>
+        <v>452.7002341019671</v>
       </c>
       <c r="N18" t="n">
-        <v>479.2360490306411</v>
+        <v>479.2360490306413</v>
       </c>
       <c r="O18" t="n">
-        <v>415.9631209268058</v>
+        <v>415.963120926806</v>
       </c>
       <c r="P18" t="n">
-        <v>314.3187267596055</v>
+        <v>308.408359455002</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.6903141357211</v>
+        <v>159.6903141357212</v>
       </c>
       <c r="R18" t="n">
-        <v>0.07908869914038519</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.79034920871547</v>
+        <v>45.79034920871553</v>
       </c>
       <c r="K19" t="n">
-        <v>206.3959299020921</v>
+        <v>206.3959299020922</v>
       </c>
       <c r="L19" t="n">
-        <v>356.4212915554169</v>
+        <v>356.4212915554222</v>
       </c>
       <c r="M19" t="n">
-        <v>348.1032718644598</v>
+        <v>348.1032718644599</v>
       </c>
       <c r="N19" t="n">
-        <v>345.3156656458175</v>
+        <v>345.3156656458176</v>
       </c>
       <c r="O19" t="n">
-        <v>302.776831906728</v>
+        <v>302.7768319067281</v>
       </c>
       <c r="P19" t="n">
-        <v>235.3196211325757</v>
+        <v>235.3196211325758</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.6452493567859</v>
+        <v>78.64524935678598</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>553.4942474849802</v>
       </c>
       <c r="O20" t="n">
-        <v>509.1789617950482</v>
+        <v>509.1789617950519</v>
       </c>
       <c r="P20" t="n">
         <v>399.7229678033241</v>
@@ -36212,16 +36212,16 @@
         <v>479.2360490306411</v>
       </c>
       <c r="O21" t="n">
-        <v>415.9631209268058</v>
+        <v>409.9736649230638</v>
       </c>
       <c r="P21" t="n">
         <v>314.3187267596055</v>
       </c>
       <c r="Q21" t="n">
-        <v>153.7799468311186</v>
+        <v>159.6903141357211</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>0.07908869914038519</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36291,10 +36291,10 @@
         <v>345.3156656458175</v>
       </c>
       <c r="O22" t="n">
-        <v>338.9950851392854</v>
+        <v>302.776831906728</v>
       </c>
       <c r="P22" t="n">
-        <v>235.3196211325757</v>
+        <v>271.5378743651393</v>
       </c>
       <c r="Q22" t="n">
         <v>78.6452493567859</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>360.4508025227613</v>
+        <v>191.3541873506875</v>
       </c>
       <c r="K23" t="n">
         <v>338.041351914079</v>
@@ -36367,19 +36367,19 @@
         <v>540.0945406617436</v>
       </c>
       <c r="N23" t="n">
-        <v>553.4942474849802</v>
+        <v>594.4651006566882</v>
       </c>
       <c r="O23" t="n">
-        <v>509.1789617950482</v>
+        <v>889.9791430577935</v>
       </c>
       <c r="P23" t="n">
         <v>399.7229678033241</v>
       </c>
       <c r="Q23" t="n">
-        <v>438.473961341599</v>
+        <v>251.5159619522077</v>
       </c>
       <c r="R23" t="n">
-        <v>125.7494009930565</v>
+        <v>60.03298112007406</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>89.05094955486364</v>
+        <v>88.97186085572334</v>
       </c>
       <c r="K24" t="n">
         <v>241.248283127754</v>
@@ -36458,7 +36458,7 @@
         <v>159.6903141357211</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>0.07908869914038519</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36516,13 +36516,13 @@
         <v>45.79034920871547</v>
       </c>
       <c r="K25" t="n">
-        <v>242.6141831346499</v>
+        <v>206.3959299020921</v>
       </c>
       <c r="L25" t="n">
         <v>320.2030383228595</v>
       </c>
       <c r="M25" t="n">
-        <v>348.1032718644598</v>
+        <v>384.3215250970233</v>
       </c>
       <c r="N25" t="n">
         <v>345.3156656458175</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>309.4810093237978</v>
+        <v>191.3541873506875</v>
       </c>
       <c r="K26" t="n">
         <v>338.041351914079</v>
@@ -36607,7 +36607,7 @@
         <v>553.4942474849802</v>
       </c>
       <c r="O26" t="n">
-        <v>509.1789617950482</v>
+        <v>693.0222036411404</v>
       </c>
       <c r="P26" t="n">
         <v>721.5216759748068</v>
@@ -36616,7 +36616,7 @@
         <v>463.8309526121124</v>
       </c>
       <c r="R26" t="n">
-        <v>125.7494009930565</v>
+        <v>60.03298112007406</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>371.1785341638231</v>
       </c>
       <c r="M27" t="n">
-        <v>452.7002341019668</v>
+        <v>446.7107780982244</v>
       </c>
       <c r="N27" t="n">
         <v>479.2360490306411</v>
@@ -36692,10 +36692,10 @@
         <v>314.3187267596055</v>
       </c>
       <c r="Q27" t="n">
-        <v>153.779946831119</v>
+        <v>159.6903141357211</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>0.07908869914038519</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36759,7 +36759,7 @@
         <v>367.0425922973624</v>
       </c>
       <c r="M28" t="n">
-        <v>394.9428258389626</v>
+        <v>394.9428258389627</v>
       </c>
       <c r="N28" t="n">
         <v>392.1552196203204</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>360.4508025227613</v>
+        <v>191.3541873506875</v>
       </c>
       <c r="K29" t="n">
         <v>338.041351914079</v>
@@ -36841,19 +36841,19 @@
         <v>540.0945406617436</v>
       </c>
       <c r="N29" t="n">
-        <v>553.4942474849802</v>
+        <v>990.8411718969644</v>
       </c>
       <c r="O29" t="n">
-        <v>509.1789617950482</v>
+        <v>789.7889780605445</v>
       </c>
       <c r="P29" t="n">
-        <v>670.551882775844</v>
+        <v>399.7229678033241</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.8309526121124</v>
+        <v>251.5159619522077</v>
       </c>
       <c r="R29" t="n">
-        <v>125.7494009930565</v>
+        <v>60.03298112007406</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,7 +36917,7 @@
         <v>371.1785341638231</v>
       </c>
       <c r="M30" t="n">
-        <v>452.7002341019668</v>
+        <v>446.7107780982244</v>
       </c>
       <c r="N30" t="n">
         <v>479.2360490306411</v>
@@ -36929,10 +36929,10 @@
         <v>314.3187267596055</v>
       </c>
       <c r="Q30" t="n">
-        <v>153.7799468311186</v>
+        <v>159.6903141357211</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>0.07908869914038519</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.62990318321835</v>
+        <v>92.62990318321832</v>
       </c>
       <c r="K31" t="n">
         <v>253.235483876595</v>
       </c>
       <c r="L31" t="n">
-        <v>367.0425922973624</v>
+        <v>367.0425922973623</v>
       </c>
       <c r="M31" t="n">
         <v>394.9428258389626</v>
       </c>
       <c r="N31" t="n">
-        <v>392.1552196203204</v>
+        <v>392.1552196203203</v>
       </c>
       <c r="O31" t="n">
         <v>349.6163858812309</v>
@@ -37008,7 +37008,7 @@
         <v>282.1591751070786</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.4848033312888</v>
+        <v>125.4848033312887</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>360.4508025227613</v>
+        <v>191.3541873506875</v>
       </c>
       <c r="K32" t="n">
-        <v>338.041351914079</v>
+        <v>552.9349483065927</v>
       </c>
       <c r="L32" t="n">
         <v>456.6446956376937</v>
@@ -37078,16 +37078,16 @@
         <v>540.0945406617436</v>
       </c>
       <c r="N32" t="n">
-        <v>553.4942474849802</v>
+        <v>990.8411718969644</v>
       </c>
       <c r="O32" t="n">
         <v>509.1789617950482</v>
       </c>
       <c r="P32" t="n">
-        <v>670.5518827758444</v>
+        <v>399.7229678033241</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.8309526121124</v>
+        <v>251.5159619522077</v>
       </c>
       <c r="R32" t="n">
         <v>125.7494009930565</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>88.97186085572322</v>
+        <v>94.96131685946568</v>
       </c>
       <c r="K33" t="n">
         <v>241.248283127754</v>
@@ -37163,7 +37163,7 @@
         <v>415.9631209268058</v>
       </c>
       <c r="P33" t="n">
-        <v>314.3187267596055</v>
+        <v>308.3292707558637</v>
       </c>
       <c r="Q33" t="n">
         <v>159.6903141357211</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>360.4508025227613</v>
+        <v>191.3541873506875</v>
       </c>
       <c r="K35" t="n">
-        <v>338.041351914079</v>
+        <v>662.1867644852438</v>
       </c>
       <c r="L35" t="n">
         <v>456.6446956376937</v>
       </c>
       <c r="M35" t="n">
-        <v>540.0945406617436</v>
+        <v>561.0237619276893</v>
       </c>
       <c r="N35" t="n">
         <v>553.4942474849802</v>
@@ -37324,10 +37324,10 @@
         <v>399.7229678033241</v>
       </c>
       <c r="Q35" t="n">
-        <v>361.7775607442609</v>
+        <v>251.5159619522077</v>
       </c>
       <c r="R35" t="n">
-        <v>125.7494009930565</v>
+        <v>60.03298112007406</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37397,16 +37397,16 @@
         <v>479.2360490306411</v>
       </c>
       <c r="O36" t="n">
-        <v>415.9631209268058</v>
+        <v>409.9736649230636</v>
       </c>
       <c r="P36" t="n">
         <v>314.3187267596055</v>
       </c>
       <c r="Q36" t="n">
-        <v>153.779946831119</v>
+        <v>159.6903141357211</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>0.07908869914038519</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>360.4508025227613</v>
+        <v>191.3541873506875</v>
       </c>
       <c r="K38" t="n">
-        <v>338.041351914079</v>
+        <v>662.1867644852438</v>
       </c>
       <c r="L38" t="n">
         <v>456.6446956376937</v>
       </c>
       <c r="M38" t="n">
-        <v>540.0945406617436</v>
+        <v>561.0237619276893</v>
       </c>
       <c r="N38" t="n">
         <v>553.4942474849802</v>
@@ -37561,10 +37561,10 @@
         <v>399.7229678033241</v>
       </c>
       <c r="Q38" t="n">
-        <v>361.7775607442632</v>
+        <v>251.5159619522077</v>
       </c>
       <c r="R38" t="n">
-        <v>125.7494009930565</v>
+        <v>60.03298112007406</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37631,7 +37631,7 @@
         <v>452.7002341019668</v>
       </c>
       <c r="N39" t="n">
-        <v>479.2360490306411</v>
+        <v>473.2465930268988</v>
       </c>
       <c r="O39" t="n">
         <v>415.9631209268058</v>
@@ -37640,10 +37640,10 @@
         <v>314.3187267596055</v>
       </c>
       <c r="Q39" t="n">
-        <v>153.779946831119</v>
+        <v>159.6903141357211</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>0.07908869914038519</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>191.3541873506875</v>
+        <v>360.4508025227613</v>
       </c>
       <c r="K41" t="n">
         <v>338.041351914079</v>
@@ -37786,13 +37786,13 @@
         <v>456.6446956376937</v>
       </c>
       <c r="M41" t="n">
-        <v>885.1691744988557</v>
+        <v>540.0945406617436</v>
       </c>
       <c r="N41" t="n">
         <v>553.4942474849802</v>
       </c>
       <c r="O41" t="n">
-        <v>509.1789617950482</v>
+        <v>685.1569804600846</v>
       </c>
       <c r="P41" t="n">
         <v>399.7229678033241</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.96131685946568</v>
+        <v>88.97186085572342</v>
       </c>
       <c r="K42" t="n">
         <v>241.248283127754</v>
@@ -37877,10 +37877,10 @@
         <v>314.3187267596055</v>
       </c>
       <c r="Q42" t="n">
-        <v>153.779946831119</v>
+        <v>159.6903141357211</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>0.07908869914038519</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.62990318321835</v>
+        <v>92.62990318321823</v>
       </c>
       <c r="K43" t="n">
-        <v>253.235483876595</v>
+        <v>253.2354838765949</v>
       </c>
       <c r="L43" t="n">
-        <v>367.0425922973624</v>
+        <v>367.0425922973623</v>
       </c>
       <c r="M43" t="n">
-        <v>394.9428258389627</v>
+        <v>394.9428258389626</v>
       </c>
       <c r="N43" t="n">
-        <v>392.1552196203204</v>
+        <v>392.1552196203226</v>
       </c>
       <c r="O43" t="n">
-        <v>349.6163858812309</v>
+        <v>349.6163858812308</v>
       </c>
       <c r="P43" t="n">
-        <v>282.1591751070786</v>
+        <v>282.1591751070785</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.4848033312888</v>
+        <v>125.4848033312887</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>360.4508025227614</v>
+        <v>191.3541873506876</v>
       </c>
       <c r="K44" t="n">
         <v>338.0413519140791</v>
@@ -38023,7 +38023,7 @@
         <v>456.6446956376939</v>
       </c>
       <c r="M44" t="n">
-        <v>540.0945406617438</v>
+        <v>819.4527546258697</v>
       </c>
       <c r="N44" t="n">
         <v>553.4942474849804</v>
@@ -38035,7 +38035,7 @@
         <v>399.7229678033243</v>
       </c>
       <c r="Q44" t="n">
-        <v>361.7775607442618</v>
+        <v>251.5159619522078</v>
       </c>
       <c r="R44" t="n">
         <v>125.7494009930566</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>88.9718608557227</v>
+        <v>94.96131685946571</v>
       </c>
       <c r="K45" t="n">
         <v>241.248283127754</v>
@@ -38114,7 +38114,7 @@
         <v>314.3187267596056</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.6903141357211</v>
+        <v>153.7008581319779</v>
       </c>
       <c r="R45" t="n">
         <v>0.07908869914041361</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.62990318321835</v>
+        <v>92.62990318321832</v>
       </c>
       <c r="K46" t="n">
         <v>253.235483876595</v>
